--- a/tipper/bin/Debug/Rankings.xlsx
+++ b/tipper/bin/Debug/Rankings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="360" windowWidth="28515" windowHeight="12315" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="360" windowWidth="28515" windowHeight="12315" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Sheet8" sheetId="9" r:id="rId4"/>
     <sheet name="Sheet9" sheetId="10" r:id="rId5"/>
     <sheet name="Sheet10" sheetId="11" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="91">
   <si>
     <t>I1</t>
   </si>
@@ -826,1051 +827,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="213">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="147">
     <dxf>
       <font>
         <condense val="0"/>
@@ -3383,6 +2340,258 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -3692,7 +2901,7 @@
         <v>-0.47416841560661299</v>
       </c>
       <c r="D1" s="3">
-        <f>ABS(C1)</f>
+        <f t="shared" ref="D1:D34" si="0">ABS(C1)</f>
         <v>0.47416841560661299</v>
       </c>
     </row>
@@ -3707,7 +2916,7 @@
         <v>-0.56114999856818304</v>
       </c>
       <c r="D2" s="3">
-        <f>ABS(C2)</f>
+        <f t="shared" si="0"/>
         <v>0.56114999856818304</v>
       </c>
     </row>
@@ -3722,7 +2931,7 @@
         <v>-1.0414568553000001</v>
       </c>
       <c r="D3" s="2">
-        <f>ABS(C3)</f>
+        <f t="shared" si="0"/>
         <v>1.0414568553000001</v>
       </c>
     </row>
@@ -3737,7 +2946,7 @@
         <v>-1.0879465277415099</v>
       </c>
       <c r="D4" s="2">
-        <f>ABS(C4)</f>
+        <f t="shared" si="0"/>
         <v>1.0879465277415099</v>
       </c>
     </row>
@@ -3752,7 +2961,7 @@
         <v>-0.41793475466680302</v>
       </c>
       <c r="D5" s="3">
-        <f>ABS(C5)</f>
+        <f t="shared" si="0"/>
         <v>0.41793475466680302</v>
       </c>
     </row>
@@ -3767,7 +2976,7 @@
         <v>-0.61914733362778496</v>
       </c>
       <c r="D6" s="3">
-        <f>ABS(C6)</f>
+        <f t="shared" si="0"/>
         <v>0.61914733362778496</v>
       </c>
     </row>
@@ -3782,7 +2991,7 @@
         <v>-0.92615550897272403</v>
       </c>
       <c r="D7" s="2">
-        <f>ABS(C7)</f>
+        <f t="shared" si="0"/>
         <v>0.92615550897272403</v>
       </c>
     </row>
@@ -3797,7 +3006,7 @@
         <v>-0.566732309780142</v>
       </c>
       <c r="D8" s="3">
-        <f>ABS(C8)</f>
+        <f t="shared" si="0"/>
         <v>0.566732309780142</v>
       </c>
     </row>
@@ -3812,7 +3021,7 @@
         <v>-0.32785705481564198</v>
       </c>
       <c r="D9" s="1">
-        <f>ABS(C9)</f>
+        <f t="shared" si="0"/>
         <v>0.32785705481564198</v>
       </c>
     </row>
@@ -3827,7 +3036,7 @@
         <v>-0.43547830018647099</v>
       </c>
       <c r="D10" s="3">
-        <f>ABS(C10)</f>
+        <f t="shared" si="0"/>
         <v>0.43547830018647099</v>
       </c>
     </row>
@@ -3842,7 +3051,7 @@
         <v>-0.52451898309596701</v>
       </c>
       <c r="D11" s="3">
-        <f>ABS(C11)</f>
+        <f t="shared" si="0"/>
         <v>0.52451898309596701</v>
       </c>
     </row>
@@ -3857,7 +3066,7 @@
         <v>-0.52366272961147298</v>
       </c>
       <c r="D12" s="3">
-        <f>ABS(C12)</f>
+        <f t="shared" si="0"/>
         <v>0.52366272961147298</v>
       </c>
     </row>
@@ -3872,7 +3081,7 @@
         <v>-0.53128831866140802</v>
       </c>
       <c r="D13" s="3">
-        <f>ABS(C13)</f>
+        <f t="shared" si="0"/>
         <v>0.53128831866140802</v>
       </c>
     </row>
@@ -3887,7 +3096,7 @@
         <v>-0.34990128907361601</v>
       </c>
       <c r="D14" s="1">
-        <f>ABS(C14)</f>
+        <f t="shared" si="0"/>
         <v>0.34990128907361601</v>
       </c>
     </row>
@@ -3902,7 +3111,7 @@
         <v>-0.39908828788467299</v>
       </c>
       <c r="D15" s="3">
-        <f>ABS(C15)</f>
+        <f t="shared" si="0"/>
         <v>0.39908828788467299</v>
       </c>
     </row>
@@ -3917,7 +3126,7 @@
         <v>-0.45072303073807601</v>
       </c>
       <c r="D16" s="3">
-        <f>ABS(C16)</f>
+        <f t="shared" si="0"/>
         <v>0.45072303073807601</v>
       </c>
     </row>
@@ -3932,7 +3141,7 @@
         <v>-0.693075057742923</v>
       </c>
       <c r="D17" s="2">
-        <f>ABS(C17)</f>
+        <f t="shared" si="0"/>
         <v>0.693075057742923</v>
       </c>
     </row>
@@ -3947,7 +3156,7 @@
         <v>-0.57659356600348799</v>
       </c>
       <c r="D18" s="3">
-        <f>ABS(C18)</f>
+        <f t="shared" si="0"/>
         <v>0.57659356600348799</v>
       </c>
     </row>
@@ -3962,7 +3171,7 @@
         <v>-0.236189641568637</v>
       </c>
       <c r="D19" s="1">
-        <f>ABS(C19)</f>
+        <f t="shared" si="0"/>
         <v>0.236189641568637</v>
       </c>
     </row>
@@ -3977,7 +3186,7 @@
         <v>-0.361404145954139</v>
       </c>
       <c r="D20" s="1">
-        <f>ABS(C20)</f>
+        <f t="shared" si="0"/>
         <v>0.361404145954139</v>
       </c>
     </row>
@@ -3992,7 +3201,7 @@
         <v>-0.66883870610259</v>
       </c>
       <c r="D21" s="2">
-        <f>ABS(C21)</f>
+        <f t="shared" si="0"/>
         <v>0.66883870610259</v>
       </c>
     </row>
@@ -4007,7 +3216,7 @@
         <v>-0.64609220894655695</v>
       </c>
       <c r="D22" s="2">
-        <f>ABS(C22)</f>
+        <f t="shared" si="0"/>
         <v>0.64609220894655695</v>
       </c>
     </row>
@@ -4022,7 +3231,7 @@
         <v>-0.54347398383240597</v>
       </c>
       <c r="D23" s="3">
-        <f>ABS(C23)</f>
+        <f t="shared" si="0"/>
         <v>0.54347398383240597</v>
       </c>
     </row>
@@ -4037,7 +3246,7 @@
         <v>-0.39137154278645098</v>
       </c>
       <c r="D24" s="1">
-        <f>ABS(C24)</f>
+        <f t="shared" si="0"/>
         <v>0.39137154278645098</v>
       </c>
     </row>
@@ -4052,7 +3261,7 @@
         <v>-0.74300477647000196</v>
       </c>
       <c r="D25" s="2">
-        <f>ABS(C25)</f>
+        <f t="shared" si="0"/>
         <v>0.74300477647000196</v>
       </c>
     </row>
@@ -4067,7 +3276,7 @@
         <v>-0.69109360011811405</v>
       </c>
       <c r="D26" s="2">
-        <f>ABS(C26)</f>
+        <f t="shared" si="0"/>
         <v>0.69109360011811405</v>
       </c>
     </row>
@@ -4082,7 +3291,7 @@
         <v>-0.31079374560901102</v>
       </c>
       <c r="D27" s="1">
-        <f>ABS(C27)</f>
+        <f t="shared" si="0"/>
         <v>0.31079374560901102</v>
       </c>
     </row>
@@ -4097,7 +3306,7 @@
         <v>-0.84571810942544601</v>
       </c>
       <c r="D28" s="2">
-        <f>ABS(C28)</f>
+        <f t="shared" si="0"/>
         <v>0.84571810942544601</v>
       </c>
     </row>
@@ -4112,7 +3321,7 @@
         <v>-0.24258405201276001</v>
       </c>
       <c r="D29" s="1">
-        <f>ABS(C29)</f>
+        <f t="shared" si="0"/>
         <v>0.24258405201276001</v>
       </c>
     </row>
@@ -4127,7 +3336,7 @@
         <v>-0.139195815464702</v>
       </c>
       <c r="D30" s="1">
-        <f>ABS(C30)</f>
+        <f t="shared" si="0"/>
         <v>0.139195815464702</v>
       </c>
     </row>
@@ -4142,7 +3351,7 @@
         <v>-0.69067528921350896</v>
       </c>
       <c r="D31" s="2">
-        <f>ABS(C31)</f>
+        <f t="shared" si="0"/>
         <v>0.69067528921350896</v>
       </c>
     </row>
@@ -4157,7 +3366,7 @@
         <v>-0.17981974828765401</v>
       </c>
       <c r="D32" s="1">
-        <f>ABS(C32)</f>
+        <f t="shared" si="0"/>
         <v>0.17981974828765401</v>
       </c>
     </row>
@@ -4172,7 +3381,7 @@
         <v>-0.98412816512920698</v>
       </c>
       <c r="D33" s="2">
-        <f>ABS(C33)</f>
+        <f t="shared" si="0"/>
         <v>0.98412816512920698</v>
       </c>
     </row>
@@ -4187,7 +3396,7 @@
         <v>-0.37130951964842002</v>
       </c>
       <c r="D34" s="1">
-        <f>ABS(C34)</f>
+        <f t="shared" si="0"/>
         <v>0.37130951964842002</v>
       </c>
     </row>
@@ -4221,11 +3430,11 @@
         <v>-0.47632930313706701</v>
       </c>
       <c r="D1">
-        <f>ABS(C1)</f>
+        <f t="shared" ref="D1:D32" si="0">ABS(C1)</f>
         <v>0.47632930313706701</v>
       </c>
       <c r="E1">
-        <f>IF(D1=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" ref="E1:E32" si="1">IF(D1=MIN($D$1:$D$50),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4240,11 +3449,11 @@
         <v>-0.51288802076198203</v>
       </c>
       <c r="D2">
-        <f>ABS(C2)</f>
+        <f t="shared" si="0"/>
         <v>0.51288802076198203</v>
       </c>
       <c r="E2">
-        <f>IF(D2=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4259,11 +3468,11 @@
         <v>-1.1610325878165599</v>
       </c>
       <c r="D3">
-        <f>ABS(C3)</f>
+        <f t="shared" si="0"/>
         <v>1.1610325878165599</v>
       </c>
       <c r="E3">
-        <f>IF(D3=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J3" t="s">
@@ -4284,11 +3493,11 @@
         <v>-1.3815757269592499</v>
       </c>
       <c r="D4">
-        <f>ABS(C4)</f>
+        <f t="shared" si="0"/>
         <v>1.3815757269592499</v>
       </c>
       <c r="E4">
-        <f>IF(D4=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4">
@@ -4327,11 +3536,11 @@
         <v>-0.52037177593009198</v>
       </c>
       <c r="D5">
-        <f>ABS(C5)</f>
+        <f t="shared" si="0"/>
         <v>0.52037177593009198</v>
       </c>
       <c r="E5">
-        <f>IF(D5=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4346,11 +3555,11 @@
         <v>-0.306421400211562</v>
       </c>
       <c r="D6">
-        <f>ABS(C6)</f>
+        <f t="shared" si="0"/>
         <v>0.306421400211562</v>
       </c>
       <c r="E6">
-        <f>IF(D6=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4365,11 +3574,11 @@
         <v>-0.67528835634886097</v>
       </c>
       <c r="D7">
-        <f>ABS(C7)</f>
+        <f t="shared" si="0"/>
         <v>0.67528835634886097</v>
       </c>
       <c r="E7">
-        <f>IF(D7=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F7" t="s">
@@ -4393,11 +3602,11 @@
         <v>-0.21634763225862599</v>
       </c>
       <c r="D8">
-        <f>ABS(C8)</f>
+        <f t="shared" si="0"/>
         <v>0.21634763225862599</v>
       </c>
       <c r="E8">
-        <f>IF(D8=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8">
@@ -4448,11 +3657,11 @@
         <v>-0.133966983911775</v>
       </c>
       <c r="D9">
-        <f>ABS(C9)</f>
+        <f t="shared" si="0"/>
         <v>0.133966983911775</v>
       </c>
       <c r="E9">
-        <f>IF(D9=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4467,11 +3676,11 @@
         <v>-0.56449879850890905</v>
       </c>
       <c r="D10">
-        <f>ABS(C10)</f>
+        <f t="shared" si="0"/>
         <v>0.56449879850890905</v>
       </c>
       <c r="E10">
-        <f>IF(D10=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4486,11 +3695,11 @@
         <v>-0.71484972204010799</v>
       </c>
       <c r="D11">
-        <f>ABS(C11)</f>
+        <f t="shared" si="0"/>
         <v>0.71484972204010799</v>
       </c>
       <c r="E11">
-        <f>IF(D11=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" t="s">
@@ -4511,11 +3720,11 @@
         <v>-0.71739476864303497</v>
       </c>
       <c r="D12">
-        <f>ABS(C12)</f>
+        <f t="shared" si="0"/>
         <v>0.71739476864303497</v>
       </c>
       <c r="E12">
-        <f>IF(D12=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12">
@@ -4554,11 +3763,11 @@
         <v>-0.270625250955982</v>
       </c>
       <c r="D13">
-        <f>ABS(C13)</f>
+        <f t="shared" si="0"/>
         <v>0.270625250955982</v>
       </c>
       <c r="E13">
-        <f>IF(D13=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4573,11 +3782,11 @@
         <v>-0.415952366708563</v>
       </c>
       <c r="D14">
-        <f>ABS(C14)</f>
+        <f t="shared" si="0"/>
         <v>0.415952366708563</v>
       </c>
       <c r="E14">
-        <f>IF(D14=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4592,11 +3801,11 @@
         <v>-0.44645929280088598</v>
       </c>
       <c r="D15">
-        <f>ABS(C15)</f>
+        <f t="shared" si="0"/>
         <v>0.44645929280088598</v>
       </c>
       <c r="E15">
-        <f>IF(D15=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15" t="s">
@@ -4620,11 +3829,11 @@
         <v>-0.17050837639265101</v>
       </c>
       <c r="D16">
-        <f>ABS(C16)</f>
+        <f t="shared" si="0"/>
         <v>0.17050837639265101</v>
       </c>
       <c r="E16">
-        <f>IF(D16=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16">
@@ -4675,11 +3884,11 @@
         <v>-0.73148777080324601</v>
       </c>
       <c r="D17">
-        <f>ABS(C17)</f>
+        <f t="shared" si="0"/>
         <v>0.73148777080324601</v>
       </c>
       <c r="E17">
-        <f>IF(D17=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4694,11 +3903,11 @@
         <v>-0.48323455034413199</v>
       </c>
       <c r="D18">
-        <f>ABS(C18)</f>
+        <f t="shared" si="0"/>
         <v>0.48323455034413199</v>
       </c>
       <c r="E18">
-        <f>IF(D18=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4713,11 +3922,11 @@
         <v>-0.62817442846510596</v>
       </c>
       <c r="D19">
-        <f>ABS(C19)</f>
+        <f t="shared" si="0"/>
         <v>0.62817442846510596</v>
       </c>
       <c r="E19">
-        <f>IF(D19=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" t="s">
@@ -4738,11 +3947,11 @@
         <v>-0.36566265128159098</v>
       </c>
       <c r="D20">
-        <f>ABS(C20)</f>
+        <f t="shared" si="0"/>
         <v>0.36566265128159098</v>
       </c>
       <c r="E20">
-        <f>IF(D20=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20">
@@ -4781,11 +3990,11 @@
         <v>-0.78157473908123398</v>
       </c>
       <c r="D21">
-        <f>ABS(C21)</f>
+        <f t="shared" si="0"/>
         <v>0.78157473908123398</v>
       </c>
       <c r="E21">
-        <f>IF(D21=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4800,11 +4009,11 @@
         <v>-0.51564079728868495</v>
       </c>
       <c r="D22">
-        <f>ABS(C22)</f>
+        <f t="shared" si="0"/>
         <v>0.51564079728868495</v>
       </c>
       <c r="E22">
-        <f>IF(D22=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4819,11 +4028,11 @@
         <v>-0.265390885372351</v>
       </c>
       <c r="D23">
-        <f>ABS(C23)</f>
+        <f t="shared" si="0"/>
         <v>0.265390885372351</v>
       </c>
       <c r="E23">
-        <f>IF(D23=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F23" t="s">
@@ -4847,11 +4056,11 @@
         <v>-0.25462421648661898</v>
       </c>
       <c r="D24">
-        <f>ABS(C24)</f>
+        <f t="shared" si="0"/>
         <v>0.25462421648661898</v>
       </c>
       <c r="E24">
-        <f>IF(D24=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F24">
@@ -4902,11 +4111,11 @@
         <v>-0.69211803563808105</v>
       </c>
       <c r="D25">
-        <f>ABS(C25)</f>
+        <f t="shared" si="0"/>
         <v>0.69211803563808105</v>
       </c>
       <c r="E25">
-        <f>IF(D25=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4921,11 +4130,11 @@
         <v>-0.72691091901010496</v>
       </c>
       <c r="D26">
-        <f>ABS(C26)</f>
+        <f t="shared" si="0"/>
         <v>0.72691091901010496</v>
       </c>
       <c r="E26">
-        <f>IF(D26=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4940,11 +4149,11 @@
         <v>-0.33827132033261598</v>
       </c>
       <c r="D27">
-        <f>ABS(C27)</f>
+        <f t="shared" si="0"/>
         <v>0.33827132033261598</v>
       </c>
       <c r="E27">
-        <f>IF(D27=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27" t="s">
@@ -4965,11 +4174,11 @@
         <v>-0.567790304055388</v>
       </c>
       <c r="D28">
-        <f>ABS(C28)</f>
+        <f t="shared" si="0"/>
         <v>0.567790304055388</v>
       </c>
       <c r="E28">
-        <f>IF(D28=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28">
@@ -5008,11 +4217,11 @@
         <v>-0.82688426114890501</v>
       </c>
       <c r="D29">
-        <f>ABS(C29)</f>
+        <f t="shared" si="0"/>
         <v>0.82688426114890501</v>
       </c>
       <c r="E29">
-        <f>IF(D29=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5027,11 +4236,11 @@
         <v>-0.71065845013405704</v>
       </c>
       <c r="D30">
-        <f>ABS(C30)</f>
+        <f t="shared" si="0"/>
         <v>0.71065845013405704</v>
       </c>
       <c r="E30">
-        <f>IF(D30=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5046,11 +4255,11 @@
         <v>-0.94792703442334003</v>
       </c>
       <c r="D31">
-        <f>ABS(C31)</f>
+        <f t="shared" si="0"/>
         <v>0.94792703442334003</v>
       </c>
       <c r="E31">
-        <f>IF(D31=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F31" t="s">
@@ -5074,11 +4283,11 @@
         <v>-0.233322683096614</v>
       </c>
       <c r="D32">
-        <f>ABS(C32)</f>
+        <f t="shared" si="0"/>
         <v>0.233322683096614</v>
       </c>
       <c r="E32">
-        <f>IF(D32=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F32">
@@ -5129,11 +4338,11 @@
         <v>-0.76608326799265003</v>
       </c>
       <c r="D33">
-        <f>ABS(C33)</f>
+        <f t="shared" ref="D33:D58" si="2">ABS(C33)</f>
         <v>0.76608326799265003</v>
       </c>
       <c r="E33">
-        <f>IF(D33=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" ref="E33:E58" si="3">IF(D33=MIN($D$1:$D$50),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5148,11 +4357,11 @@
         <v>-0.61369291524422698</v>
       </c>
       <c r="D34">
-        <f>ABS(C34)</f>
+        <f t="shared" si="2"/>
         <v>0.61369291524422698</v>
       </c>
       <c r="E34">
-        <f>IF(D34=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5167,11 +4376,11 @@
         <v>-0.31016906177389503</v>
       </c>
       <c r="D35">
-        <f>ABS(C35)</f>
+        <f t="shared" si="2"/>
         <v>0.31016906177389503</v>
       </c>
       <c r="E35">
-        <f>IF(D35=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5186,11 +4395,11 @@
         <v>-0.68064754636077696</v>
       </c>
       <c r="D36">
-        <f>ABS(C36)</f>
+        <f t="shared" si="2"/>
         <v>0.68064754636077696</v>
       </c>
       <c r="E36">
-        <f>IF(D36=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J36" t="s">
@@ -5211,11 +4420,11 @@
         <v>-0.179881722232313</v>
       </c>
       <c r="D37">
-        <f>ABS(C37)</f>
+        <f t="shared" si="2"/>
         <v>0.179881722232313</v>
       </c>
       <c r="E37">
-        <f>IF(D37=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J37">
@@ -5254,11 +4463,11 @@
         <v>-0.23156247263143101</v>
       </c>
       <c r="D38">
-        <f>ABS(C38)</f>
+        <f t="shared" si="2"/>
         <v>0.23156247263143101</v>
       </c>
       <c r="E38">
-        <f>IF(D38=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5273,11 +4482,11 @@
         <v>-0.3733426857903</v>
       </c>
       <c r="D39">
-        <f>ABS(C39)</f>
+        <f t="shared" si="2"/>
         <v>0.3733426857903</v>
       </c>
       <c r="E39">
-        <f>IF(D39=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5292,11 +4501,11 @@
         <v>-0.312160792775454</v>
       </c>
       <c r="D40">
-        <f>ABS(C40)</f>
+        <f t="shared" si="2"/>
         <v>0.312160792775454</v>
       </c>
       <c r="E40">
-        <f>IF(D40=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F40" t="s">
@@ -5320,11 +4529,11 @@
         <v>-0.223253285648113</v>
       </c>
       <c r="D41">
-        <f>ABS(C41)</f>
+        <f t="shared" si="2"/>
         <v>0.223253285648113</v>
       </c>
       <c r="E41">
-        <f>IF(D41=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F41">
@@ -5375,11 +4584,11 @@
         <v>-0.30481739955233</v>
       </c>
       <c r="D42">
-        <f>ABS(C42)</f>
+        <f t="shared" si="2"/>
         <v>0.30481739955233</v>
       </c>
       <c r="E42">
-        <f>IF(D42=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5394,11 +4603,11 @@
         <v>-0.151819270948989</v>
       </c>
       <c r="D43">
-        <f>ABS(C43)</f>
+        <f t="shared" si="2"/>
         <v>0.151819270948989</v>
       </c>
       <c r="E43">
-        <f>IF(D43=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5413,11 +4622,11 @@
         <v>-0.29722904675077799</v>
       </c>
       <c r="D44">
-        <f>ABS(C44)</f>
+        <f t="shared" si="2"/>
         <v>0.29722904675077799</v>
       </c>
       <c r="E44">
-        <f>IF(D44=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J44" t="s">
@@ -5438,11 +4647,11 @@
         <v>-0.297627458137599</v>
       </c>
       <c r="D45">
-        <f>ABS(C45)</f>
+        <f t="shared" si="2"/>
         <v>0.297627458137599</v>
       </c>
       <c r="E45">
-        <f>IF(D45=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J45">
@@ -5481,11 +4690,11 @@
         <v>-0.32760461929611601</v>
       </c>
       <c r="D46">
-        <f>ABS(C46)</f>
+        <f t="shared" si="2"/>
         <v>0.32760461929611601</v>
       </c>
       <c r="E46">
-        <f>IF(D46=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5500,11 +4709,11 @@
         <v>-0.45893905384625899</v>
       </c>
       <c r="D47">
-        <f>ABS(C47)</f>
+        <f t="shared" si="2"/>
         <v>0.45893905384625899</v>
       </c>
       <c r="E47">
-        <f>IF(D47=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5519,11 +4728,11 @@
         <v>-0.36323935880596703</v>
       </c>
       <c r="D48">
-        <f>ABS(C48)</f>
+        <f t="shared" si="2"/>
         <v>0.36323935880596703</v>
       </c>
       <c r="E48">
-        <f>IF(D48=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F48" t="s">
@@ -5547,11 +4756,11 @@
         <v>-0.18610993135700299</v>
       </c>
       <c r="D49">
-        <f>ABS(C49)</f>
+        <f t="shared" si="2"/>
         <v>0.18610993135700299</v>
       </c>
       <c r="E49">
-        <f>IF(D49=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F49">
@@ -5602,11 +4811,11 @@
         <v>-0.62488542907853495</v>
       </c>
       <c r="D50">
-        <f>ABS(C50)</f>
+        <f t="shared" si="2"/>
         <v>0.62488542907853495</v>
       </c>
       <c r="E50">
-        <f>IF(D50=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5621,11 +4830,11 @@
         <v>-0.62265604952367903</v>
       </c>
       <c r="D51">
-        <f>ABS(C51)</f>
+        <f t="shared" si="2"/>
         <v>0.62265604952367903</v>
       </c>
       <c r="E51">
-        <f>IF(D51=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5640,11 +4849,11 @@
         <v>-0.208864381748116</v>
       </c>
       <c r="D52">
-        <f>ABS(C52)</f>
+        <f t="shared" si="2"/>
         <v>0.208864381748116</v>
       </c>
       <c r="E52">
-        <f>IF(D52=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J52" t="s">
@@ -5665,11 +4874,11 @@
         <v>-0.18022772700186501</v>
       </c>
       <c r="D53">
-        <f>ABS(C53)</f>
+        <f t="shared" si="2"/>
         <v>0.18022772700186501</v>
       </c>
       <c r="E53">
-        <f>IF(D53=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J53">
@@ -5708,11 +4917,11 @@
         <v>-1.2849157930089401</v>
       </c>
       <c r="D54">
-        <f>ABS(C54)</f>
+        <f t="shared" si="2"/>
         <v>1.2849157930089401</v>
       </c>
       <c r="E54">
-        <f>IF(D54=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5727,11 +4936,11 @@
         <v>-0.98029948345969897</v>
       </c>
       <c r="D55">
-        <f>ABS(C55)</f>
+        <f t="shared" si="2"/>
         <v>0.98029948345969897</v>
       </c>
       <c r="E55">
-        <f>IF(D55=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5746,11 +4955,11 @@
         <v>-0.87341903481975103</v>
       </c>
       <c r="D56">
-        <f>ABS(C56)</f>
+        <f t="shared" si="2"/>
         <v>0.87341903481975103</v>
       </c>
       <c r="E56">
-        <f>IF(D56=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F56" t="s">
@@ -5774,11 +4983,11 @@
         <v>-0.48422637774094401</v>
       </c>
       <c r="D57">
-        <f>ABS(C57)</f>
+        <f t="shared" si="2"/>
         <v>0.48422637774094401</v>
       </c>
       <c r="E57">
-        <f>IF(D57=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F57">
@@ -5829,11 +5038,11 @@
         <v>-0.55848973633876098</v>
       </c>
       <c r="D58">
-        <f>ABS(C58)</f>
+        <f t="shared" si="2"/>
         <v>0.55848973633876098</v>
       </c>
       <c r="E58">
-        <f>IF(D58=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5842,97 +5051,97 @@
     <sortCondition ref="A1"/>
   </sortState>
   <conditionalFormatting sqref="J4:L4 N4:P4 F8:H8 J8:L8 N8:P8">
-    <cfRule type="cellIs" dxfId="212" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="24" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="23" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="144" priority="22" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:L12 N12:P12 F16:H16 J16:L16 N16:P16">
-    <cfRule type="cellIs" dxfId="209" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="143" priority="19" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="20" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="21" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:L20 N20:P20 F24:H24 J24:L24 N24:P24">
-    <cfRule type="cellIs" dxfId="206" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="140" priority="16" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="17" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="18" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:L28 N28:P28 F32:H32 J32:L32 N32:P32">
-    <cfRule type="cellIs" dxfId="203" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="137" priority="13" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="14" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="15" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:L37 N37:P37 F41:H41 J41:L41 N41:P41">
-    <cfRule type="cellIs" dxfId="200" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="134" priority="10" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="11" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="12" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:L45 N45:P45 F49:H49 J49:L49 N49:P49">
-    <cfRule type="cellIs" dxfId="197" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="131" priority="7" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="8" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="9" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53:L53 N53:P53 F57:H57 J57:L57 N57:P57">
-    <cfRule type="cellIs" dxfId="194" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="128" priority="4" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="5" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="6" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D58">
-    <cfRule type="cellIs" dxfId="189" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="3" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="2" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="123" priority="1" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
@@ -5963,11 +5172,11 @@
         <v>-0.45126141377422102</v>
       </c>
       <c r="D1">
-        <f>ABS(C1)</f>
+        <f t="shared" ref="D1:D32" si="0">ABS(C1)</f>
         <v>0.45126141377422102</v>
       </c>
       <c r="E1">
-        <f>IF(D1=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" ref="E1:E32" si="1">IF(D1=MIN($D$1:$D$50),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5982,11 +5191,11 @@
         <v>-0.63020758260005205</v>
       </c>
       <c r="D2">
-        <f>ABS(C2)</f>
+        <f t="shared" si="0"/>
         <v>0.63020758260005205</v>
       </c>
       <c r="E2">
-        <f>IF(D2=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6001,11 +5210,11 @@
         <v>-1.3500888891626399</v>
       </c>
       <c r="D3">
-        <f>ABS(C3)</f>
+        <f t="shared" si="0"/>
         <v>1.3500888891626399</v>
       </c>
       <c r="E3">
-        <f>IF(D3=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J3" t="s">
@@ -6026,11 +5235,11 @@
         <v>-1.6962375255491899</v>
       </c>
       <c r="D4">
-        <f>ABS(C4)</f>
+        <f t="shared" si="0"/>
         <v>1.6962375255491899</v>
       </c>
       <c r="E4">
-        <f>IF(D4=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4">
@@ -6069,11 +5278,11 @@
         <v>-0.57146129096689602</v>
       </c>
       <c r="D5">
-        <f>ABS(C5)</f>
+        <f t="shared" si="0"/>
         <v>0.57146129096689602</v>
       </c>
       <c r="E5">
-        <f>IF(D5=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6088,11 +5297,11 @@
         <v>-0.44304008192765199</v>
       </c>
       <c r="D6">
-        <f>ABS(C6)</f>
+        <f t="shared" si="0"/>
         <v>0.44304008192765199</v>
       </c>
       <c r="E6">
-        <f>IF(D6=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6107,11 +5316,11 @@
         <v>-0.71614053375824704</v>
       </c>
       <c r="D7">
-        <f>ABS(C7)</f>
+        <f t="shared" si="0"/>
         <v>0.71614053375824704</v>
       </c>
       <c r="E7">
-        <f>IF(D7=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F7" t="s">
@@ -6135,11 +5344,11 @@
         <v>-0.31796468859099902</v>
       </c>
       <c r="D8">
-        <f>ABS(C8)</f>
+        <f t="shared" si="0"/>
         <v>0.31796468859099902</v>
       </c>
       <c r="E8">
-        <f>IF(D8=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8">
@@ -6190,11 +5399,11 @@
         <v>-0.58857886217268396</v>
       </c>
       <c r="D9">
-        <f>ABS(C9)</f>
+        <f t="shared" si="0"/>
         <v>0.58857886217268396</v>
       </c>
       <c r="E9">
-        <f>IF(D9=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6209,11 +5418,11 @@
         <v>-0.38990852089969902</v>
       </c>
       <c r="D10">
-        <f>ABS(C10)</f>
+        <f t="shared" si="0"/>
         <v>0.38990852089969902</v>
       </c>
       <c r="E10">
-        <f>IF(D10=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6228,11 +5437,11 @@
         <v>-0.57585185468356503</v>
       </c>
       <c r="D11">
-        <f>ABS(C11)</f>
+        <f t="shared" si="0"/>
         <v>0.57585185468356503</v>
       </c>
       <c r="E11">
-        <f>IF(D11=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" t="s">
@@ -6253,11 +5462,11 @@
         <v>-0.12066901341941901</v>
       </c>
       <c r="D12">
-        <f>ABS(C12)</f>
+        <f t="shared" si="0"/>
         <v>0.12066901341941901</v>
       </c>
       <c r="E12">
-        <f>IF(D12=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12">
@@ -6296,11 +5505,11 @@
         <v>-0.75995099922336695</v>
       </c>
       <c r="D13">
-        <f>ABS(C13)</f>
+        <f t="shared" si="0"/>
         <v>0.75995099922336695</v>
       </c>
       <c r="E13">
-        <f>IF(D13=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6315,11 +5524,11 @@
         <v>-0.28326045164193803</v>
       </c>
       <c r="D14">
-        <f>ABS(C14)</f>
+        <f t="shared" si="0"/>
         <v>0.28326045164193803</v>
       </c>
       <c r="E14">
-        <f>IF(D14=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6334,11 +5543,11 @@
         <v>-0.27885478795509699</v>
       </c>
       <c r="D15">
-        <f>ABS(C15)</f>
+        <f t="shared" si="0"/>
         <v>0.27885478795509699</v>
       </c>
       <c r="E15">
-        <f>IF(D15=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15" t="s">
@@ -6362,11 +5571,11 @@
         <v>-0.38598227192753898</v>
       </c>
       <c r="D16">
-        <f>ABS(C16)</f>
+        <f t="shared" si="0"/>
         <v>0.38598227192753898</v>
       </c>
       <c r="E16">
-        <f>IF(D16=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16">
@@ -6417,11 +5626,11 @@
         <v>-0.63336427322148403</v>
       </c>
       <c r="D17">
-        <f>ABS(C17)</f>
+        <f t="shared" si="0"/>
         <v>0.63336427322148403</v>
       </c>
       <c r="E17">
-        <f>IF(D17=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6436,11 +5645,11 @@
         <v>-0.74798490721010502</v>
       </c>
       <c r="D18">
-        <f>ABS(C18)</f>
+        <f t="shared" si="0"/>
         <v>0.74798490721010502</v>
       </c>
       <c r="E18">
-        <f>IF(D18=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6455,11 +5664,11 @@
         <v>-0.28116679825930002</v>
       </c>
       <c r="D19">
-        <f>ABS(C19)</f>
+        <f t="shared" si="0"/>
         <v>0.28116679825930002</v>
       </c>
       <c r="E19">
-        <f>IF(D19=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" t="s">
@@ -6480,11 +5689,11 @@
         <v>-0.51011591507012499</v>
       </c>
       <c r="D20">
-        <f>ABS(C20)</f>
+        <f t="shared" si="0"/>
         <v>0.51011591507012499</v>
       </c>
       <c r="E20">
-        <f>IF(D20=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20">
@@ -6523,11 +5732,11 @@
         <v>-0.78174834935461501</v>
       </c>
       <c r="D21">
-        <f>ABS(C21)</f>
+        <f t="shared" si="0"/>
         <v>0.78174834935461501</v>
       </c>
       <c r="E21">
-        <f>IF(D21=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6542,11 +5751,11 @@
         <v>-0.704548406578139</v>
       </c>
       <c r="D22">
-        <f>ABS(C22)</f>
+        <f t="shared" si="0"/>
         <v>0.704548406578139</v>
       </c>
       <c r="E22">
-        <f>IF(D22=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6561,11 +5770,11 @@
         <v>-0.88117813555660995</v>
       </c>
       <c r="D23">
-        <f>ABS(C23)</f>
+        <f t="shared" si="0"/>
         <v>0.88117813555660995</v>
       </c>
       <c r="E23">
-        <f>IF(D23=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F23" t="s">
@@ -6589,11 +5798,11 @@
         <v>-0.25175263539243198</v>
       </c>
       <c r="D24">
-        <f>ABS(C24)</f>
+        <f t="shared" si="0"/>
         <v>0.25175263539243198</v>
       </c>
       <c r="E24">
-        <f>IF(D24=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F24">
@@ -6644,11 +5853,11 @@
         <v>-0.72564126335327195</v>
       </c>
       <c r="D25">
-        <f>ABS(C25)</f>
+        <f t="shared" si="0"/>
         <v>0.72564126335327195</v>
       </c>
       <c r="E25">
-        <f>IF(D25=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6663,11 +5872,11 @@
         <v>-0.58490046877226598</v>
       </c>
       <c r="D26">
-        <f>ABS(C26)</f>
+        <f t="shared" si="0"/>
         <v>0.58490046877226598</v>
       </c>
       <c r="E26">
-        <f>IF(D26=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6682,11 +5891,11 @@
         <v>-0.31019698890304997</v>
       </c>
       <c r="D27">
-        <f>ABS(C27)</f>
+        <f t="shared" si="0"/>
         <v>0.31019698890304997</v>
       </c>
       <c r="E27">
-        <f>IF(D27=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27" t="s">
@@ -6707,11 +5916,11 @@
         <v>-0.70086981346101496</v>
       </c>
       <c r="D28">
-        <f>ABS(C28)</f>
+        <f t="shared" si="0"/>
         <v>0.70086981346101496</v>
       </c>
       <c r="E28">
-        <f>IF(D28=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28">
@@ -6750,11 +5959,11 @@
         <v>-0.17550547715683601</v>
       </c>
       <c r="D29">
-        <f>ABS(C29)</f>
+        <f t="shared" si="0"/>
         <v>0.17550547715683601</v>
       </c>
       <c r="E29">
-        <f>IF(D29=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6769,11 +5978,11 @@
         <v>-0.30139933917985401</v>
       </c>
       <c r="D30">
-        <f>ABS(C30)</f>
+        <f t="shared" si="0"/>
         <v>0.30139933917985401</v>
       </c>
       <c r="E30">
-        <f>IF(D30=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6788,11 +5997,11 @@
         <v>-0.395865810554269</v>
       </c>
       <c r="D31">
-        <f>ABS(C31)</f>
+        <f t="shared" si="0"/>
         <v>0.395865810554269</v>
       </c>
       <c r="E31">
-        <f>IF(D31=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F31" t="s">
@@ -6816,11 +6025,11 @@
         <v>-0.33152773813375502</v>
       </c>
       <c r="D32">
-        <f>ABS(C32)</f>
+        <f t="shared" si="0"/>
         <v>0.33152773813375502</v>
       </c>
       <c r="E32">
-        <f>IF(D32=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F32">
@@ -6871,11 +6080,11 @@
         <v>-0.25837832883193901</v>
       </c>
       <c r="D33">
-        <f>ABS(C33)</f>
+        <f t="shared" ref="D33:D50" si="2">ABS(C33)</f>
         <v>0.25837832883193901</v>
       </c>
       <c r="E33">
-        <f>IF(D33=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" ref="E33:E50" si="3">IF(D33=MIN($D$1:$D$50),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6890,11 +6099,11 @@
         <v>-0.28708477523336101</v>
       </c>
       <c r="D34">
-        <f>ABS(C34)</f>
+        <f t="shared" si="2"/>
         <v>0.28708477523336101</v>
       </c>
       <c r="E34">
-        <f>IF(D34=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6909,11 +6118,11 @@
         <v>-0.16229885214956499</v>
       </c>
       <c r="D35">
-        <f>ABS(C35)</f>
+        <f t="shared" si="2"/>
         <v>0.16229885214956499</v>
       </c>
       <c r="E35">
-        <f>IF(D35=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6928,11 +6137,11 @@
         <v>-0.31935310322847099</v>
       </c>
       <c r="D36">
-        <f>ABS(C36)</f>
+        <f t="shared" si="2"/>
         <v>0.31935310322847099</v>
       </c>
       <c r="E36">
-        <f>IF(D36=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J36" t="s">
@@ -6953,11 +6162,11 @@
         <v>-0.29800433555484102</v>
       </c>
       <c r="D37">
-        <f>ABS(C37)</f>
+        <f t="shared" si="2"/>
         <v>0.29800433555484102</v>
       </c>
       <c r="E37">
-        <f>IF(D37=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J37">
@@ -6996,11 +6205,11 @@
         <v>-0.39821609059723401</v>
       </c>
       <c r="D38">
-        <f>ABS(C38)</f>
+        <f t="shared" si="2"/>
         <v>0.39821609059723401</v>
       </c>
       <c r="E38">
-        <f>IF(D38=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7015,11 +6224,11 @@
         <v>-0.50561905492119597</v>
       </c>
       <c r="D39">
-        <f>ABS(C39)</f>
+        <f t="shared" si="2"/>
         <v>0.50561905492119597</v>
       </c>
       <c r="E39">
-        <f>IF(D39=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F39" t="s">
@@ -7043,11 +6252,11 @@
         <v>-0.33412837838880499</v>
       </c>
       <c r="D40">
-        <f>ABS(C40)</f>
+        <f t="shared" si="2"/>
         <v>0.33412837838880499</v>
       </c>
       <c r="E40">
-        <f>IF(D40=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F40">
@@ -7098,11 +6307,11 @@
         <v>-0.16987511152939899</v>
       </c>
       <c r="D41">
-        <f>ABS(C41)</f>
+        <f t="shared" si="2"/>
         <v>0.16987511152939899</v>
       </c>
       <c r="E41">
-        <f>IF(D41=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7117,11 +6326,11 @@
         <v>-0.222045541514518</v>
       </c>
       <c r="D42">
-        <f>ABS(C42)</f>
+        <f t="shared" si="2"/>
         <v>0.222045541514518</v>
       </c>
       <c r="E42">
-        <f>IF(D42=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7136,11 +6345,11 @@
         <v>-0.30670474358546002</v>
       </c>
       <c r="D43">
-        <f>ABS(C43)</f>
+        <f t="shared" si="2"/>
         <v>0.30670474358546002</v>
       </c>
       <c r="E43">
-        <f>IF(D43=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7155,11 +6364,11 @@
         <v>-0.11118304133191299</v>
       </c>
       <c r="D44">
-        <f>ABS(C44)</f>
+        <f t="shared" si="2"/>
         <v>0.11118304133191299</v>
       </c>
       <c r="E44">
-        <f>IF(D44=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J44" t="s">
@@ -7180,11 +6389,11 @@
         <v>-0.28731523867788999</v>
       </c>
       <c r="D45">
-        <f>ABS(C45)</f>
+        <f t="shared" si="2"/>
         <v>0.28731523867788999</v>
       </c>
       <c r="E45">
-        <f>IF(D45=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J45">
@@ -7223,11 +6432,11 @@
         <v>-0.96840650311874599</v>
       </c>
       <c r="D46">
-        <f>ABS(C46)</f>
+        <f t="shared" si="2"/>
         <v>0.96840650311874599</v>
       </c>
       <c r="E46">
-        <f>IF(D46=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7242,11 +6451,11 @@
         <v>-0.80691484450346396</v>
       </c>
       <c r="D47">
-        <f>ABS(C47)</f>
+        <f t="shared" si="2"/>
         <v>0.80691484450346396</v>
       </c>
       <c r="E47">
-        <f>IF(D47=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F47" t="s">
@@ -7270,11 +6479,11 @@
         <v>-0.67778622579794501</v>
       </c>
       <c r="D48">
-        <f>ABS(C48)</f>
+        <f t="shared" si="2"/>
         <v>0.67778622579794501</v>
       </c>
       <c r="E48">
-        <f>IF(D48=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F48">
@@ -7325,11 +6534,11 @@
         <v>-0.53833373783106397</v>
       </c>
       <c r="D49">
-        <f>ABS(C49)</f>
+        <f t="shared" si="2"/>
         <v>0.53833373783106397</v>
       </c>
       <c r="E49">
-        <f>IF(D49=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7344,60 +6553,60 @@
         <v>-0.480812569315542</v>
       </c>
       <c r="D50">
-        <f>ABS(C50)</f>
+        <f t="shared" si="2"/>
         <v>0.480812569315542</v>
       </c>
       <c r="E50">
-        <f>IF(D50=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J4:L4 N4:P4 F8:H8 J8:L8 N8:P8 J12:L12 N12:P12 F16:H16 J16:L16 N16:P16 J20:L20 N20:P20 F24:H24 J24:L24 N24:P24 J28:L28 N28:P28 F32:H32 J32:L32 N32:P32 J37:L37 N37:P37 D1:D50">
-    <cfRule type="cellIs" dxfId="188" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="122" priority="28" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="29" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="30" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:H40 J40:L40 N40:P40">
-    <cfRule type="cellIs" dxfId="185" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="119" priority="16" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="17" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="18" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:L45 N45:P45">
-    <cfRule type="cellIs" dxfId="179" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="116" priority="4" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="5" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="6" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48 J48:L48 N48:P48">
-    <cfRule type="cellIs" dxfId="176" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="113" priority="1" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="2" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="3" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7427,11 +6636,11 @@
         <v>-0.54919700383961201</v>
       </c>
       <c r="D1">
-        <f>ABS(C1)</f>
+        <f t="shared" ref="D1:D32" si="0">ABS(C1)</f>
         <v>0.54919700383961201</v>
       </c>
       <c r="E1">
-        <f>IF(D1=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" ref="E1:E32" si="1">IF(D1=MIN($D$1:$D$50),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7446,11 +6655,11 @@
         <v>-0.719121662195225</v>
       </c>
       <c r="D2">
-        <f>ABS(C2)</f>
+        <f t="shared" si="0"/>
         <v>0.719121662195225</v>
       </c>
       <c r="E2">
-        <f>IF(D2=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7465,11 +6674,11 @@
         <v>-1.5175317344159001</v>
       </c>
       <c r="D3">
-        <f>ABS(C3)</f>
+        <f t="shared" si="0"/>
         <v>1.5175317344159001</v>
       </c>
       <c r="E3">
-        <f>IF(D3=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J3" t="s">
@@ -7490,11 +6699,11 @@
         <v>-1.79908863111069</v>
       </c>
       <c r="D4">
-        <f>ABS(C4)</f>
+        <f t="shared" si="0"/>
         <v>1.79908863111069</v>
       </c>
       <c r="E4">
-        <f>IF(D4=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4">
@@ -7533,11 +6742,11 @@
         <v>-0.73014138490971303</v>
       </c>
       <c r="D5">
-        <f>ABS(C5)</f>
+        <f t="shared" si="0"/>
         <v>0.73014138490971303</v>
       </c>
       <c r="E5">
-        <f>IF(D5=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7552,11 +6761,11 @@
         <v>-0.48978141121602398</v>
       </c>
       <c r="D6">
-        <f>ABS(C6)</f>
+        <f t="shared" si="0"/>
         <v>0.48978141121602398</v>
       </c>
       <c r="E6">
-        <f>IF(D6=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7571,11 +6780,11 @@
         <v>-0.90174787300353398</v>
       </c>
       <c r="D7">
-        <f>ABS(C7)</f>
+        <f t="shared" si="0"/>
         <v>0.90174787300353398</v>
       </c>
       <c r="E7">
-        <f>IF(D7=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F7" t="s">
@@ -7599,11 +6808,11 @@
         <v>-0.33164018986525901</v>
       </c>
       <c r="D8">
-        <f>ABS(C8)</f>
+        <f t="shared" si="0"/>
         <v>0.33164018986525901</v>
       </c>
       <c r="E8">
-        <f>IF(D8=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8">
@@ -7654,11 +6863,11 @@
         <v>-0.72556304521912496</v>
       </c>
       <c r="D9">
-        <f>ABS(C9)</f>
+        <f t="shared" si="0"/>
         <v>0.72556304521912496</v>
       </c>
       <c r="E9">
-        <f>IF(D9=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7673,11 +6882,11 @@
         <v>-0.55681607653635701</v>
       </c>
       <c r="D10">
-        <f>ABS(C10)</f>
+        <f t="shared" si="0"/>
         <v>0.55681607653635701</v>
       </c>
       <c r="E10">
-        <f>IF(D10=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7692,11 +6901,11 @@
         <v>-0.73303550787349003</v>
       </c>
       <c r="D11">
-        <f>ABS(C11)</f>
+        <f t="shared" si="0"/>
         <v>0.73303550787349003</v>
       </c>
       <c r="E11">
-        <f>IF(D11=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" t="s">
@@ -7717,11 +6926,11 @@
         <v>-0.13723217619087799</v>
       </c>
       <c r="D12">
-        <f>ABS(C12)</f>
+        <f t="shared" si="0"/>
         <v>0.13723217619087799</v>
       </c>
       <c r="E12">
-        <f>IF(D12=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12">
@@ -7760,11 +6969,11 @@
         <v>-0.92162483250192995</v>
       </c>
       <c r="D13">
-        <f>ABS(C13)</f>
+        <f t="shared" si="0"/>
         <v>0.92162483250192995</v>
       </c>
       <c r="E13">
-        <f>IF(D13=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7779,11 +6988,11 @@
         <v>-0.170050565796911</v>
       </c>
       <c r="D14">
-        <f>ABS(C14)</f>
+        <f t="shared" si="0"/>
         <v>0.170050565796911</v>
       </c>
       <c r="E14">
-        <f>IF(D14=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7798,11 +7007,11 @@
         <v>-0.34090157885693101</v>
       </c>
       <c r="D15">
-        <f>ABS(C15)</f>
+        <f t="shared" si="0"/>
         <v>0.34090157885693101</v>
       </c>
       <c r="E15">
-        <f>IF(D15=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15" t="s">
@@ -7826,11 +7035,11 @@
         <v>-0.45329715118605601</v>
       </c>
       <c r="D16">
-        <f>ABS(C16)</f>
+        <f t="shared" si="0"/>
         <v>0.45329715118605601</v>
       </c>
       <c r="E16">
-        <f>IF(D16=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16">
@@ -7881,11 +7090,11 @@
         <v>-0.80982044780310503</v>
       </c>
       <c r="D17">
-        <f>ABS(C17)</f>
+        <f t="shared" si="0"/>
         <v>0.80982044780310503</v>
       </c>
       <c r="E17">
-        <f>IF(D17=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7900,11 +7109,11 @@
         <v>-0.92888867419404697</v>
       </c>
       <c r="D18">
-        <f>ABS(C18)</f>
+        <f t="shared" si="0"/>
         <v>0.92888867419404697</v>
       </c>
       <c r="E18">
-        <f>IF(D18=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7919,11 +7128,11 @@
         <v>-0.33434713365676699</v>
       </c>
       <c r="D19">
-        <f>ABS(C19)</f>
+        <f t="shared" si="0"/>
         <v>0.33434713365676699</v>
       </c>
       <c r="E19">
-        <f>IF(D19=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" t="s">
@@ -7944,11 +7153,11 @@
         <v>-0.60752028878890696</v>
       </c>
       <c r="D20">
-        <f>ABS(C20)</f>
+        <f t="shared" si="0"/>
         <v>0.60752028878890696</v>
       </c>
       <c r="E20">
-        <f>IF(D20=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20">
@@ -7987,11 +7196,11 @@
         <v>-0.97176690846776603</v>
       </c>
       <c r="D21">
-        <f>ABS(C21)</f>
+        <f t="shared" si="0"/>
         <v>0.97176690846776603</v>
       </c>
       <c r="E21">
-        <f>IF(D21=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8006,11 +7215,11 @@
         <v>-0.78958445122075405</v>
       </c>
       <c r="D22">
-        <f>ABS(C22)</f>
+        <f t="shared" si="0"/>
         <v>0.78958445122075405</v>
       </c>
       <c r="E22">
-        <f>IF(D22=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8025,11 +7234,11 @@
         <v>-0.97115307957814301</v>
       </c>
       <c r="D23">
-        <f>ABS(C23)</f>
+        <f t="shared" si="0"/>
         <v>0.97115307957814301</v>
       </c>
       <c r="E23">
-        <f>IF(D23=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F23" t="s">
@@ -8053,11 +7262,11 @@
         <v>-0.28979120451312801</v>
       </c>
       <c r="D24">
-        <f>ABS(C24)</f>
+        <f t="shared" si="0"/>
         <v>0.28979120451312801</v>
       </c>
       <c r="E24">
-        <f>IF(D24=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F24">
@@ -8108,11 +7317,11 @@
         <v>-0.80528251271242701</v>
       </c>
       <c r="D25">
-        <f>ABS(C25)</f>
+        <f t="shared" si="0"/>
         <v>0.80528251271242701</v>
       </c>
       <c r="E25">
-        <f>IF(D25=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8127,11 +7336,11 @@
         <v>-0.74848658564676496</v>
       </c>
       <c r="D26">
-        <f>ABS(C26)</f>
+        <f t="shared" si="0"/>
         <v>0.74848658564676496</v>
       </c>
       <c r="E26">
-        <f>IF(D26=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8146,11 +7355,11 @@
         <v>-0.35732541742971302</v>
       </c>
       <c r="D27">
-        <f>ABS(C27)</f>
+        <f t="shared" si="0"/>
         <v>0.35732541742971302</v>
       </c>
       <c r="E27">
-        <f>IF(D27=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27" t="s">
@@ -8171,11 +7380,11 @@
         <v>-0.762642065688235</v>
       </c>
       <c r="D28">
-        <f>ABS(C28)</f>
+        <f t="shared" si="0"/>
         <v>0.762642065688235</v>
       </c>
       <c r="E28">
-        <f>IF(D28=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28">
@@ -8214,11 +7423,11 @@
         <v>-0.22540803671873899</v>
       </c>
       <c r="D29">
-        <f>ABS(C29)</f>
+        <f t="shared" si="0"/>
         <v>0.22540803671873899</v>
       </c>
       <c r="E29">
-        <f>IF(D29=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8233,11 +7442,11 @@
         <v>-0.31025219697098699</v>
       </c>
       <c r="D30">
-        <f>ABS(C30)</f>
+        <f t="shared" si="0"/>
         <v>0.31025219697098699</v>
       </c>
       <c r="E30">
-        <f>IF(D30=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8252,11 +7461,11 @@
         <v>-0.45084013441584098</v>
       </c>
       <c r="D31">
-        <f>ABS(C31)</f>
+        <f t="shared" si="0"/>
         <v>0.45084013441584098</v>
       </c>
       <c r="E31">
-        <f>IF(D31=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F31" t="s">
@@ -8280,11 +7489,11 @@
         <v>-0.39851612143417597</v>
       </c>
       <c r="D32">
-        <f>ABS(C32)</f>
+        <f t="shared" si="0"/>
         <v>0.39851612143417597</v>
       </c>
       <c r="E32">
-        <f>IF(D32=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F32">
@@ -8335,11 +7544,11 @@
         <v>-0.41306746988318299</v>
       </c>
       <c r="D33">
-        <f>ABS(C33)</f>
+        <f t="shared" ref="D33:D50" si="2">ABS(C33)</f>
         <v>0.41306746988318299</v>
       </c>
       <c r="E33">
-        <f>IF(D33=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" ref="E33:E50" si="3">IF(D33=MIN($D$1:$D$50),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8354,11 +7563,11 @@
         <v>-0.62427421953159901</v>
       </c>
       <c r="D34">
-        <f>ABS(C34)</f>
+        <f t="shared" si="2"/>
         <v>0.62427421953159901</v>
       </c>
       <c r="E34">
-        <f>IF(D34=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8373,11 +7582,11 @@
         <v>-0.73678028464678702</v>
       </c>
       <c r="D35">
-        <f>ABS(C35)</f>
+        <f t="shared" si="2"/>
         <v>0.73678028464678702</v>
       </c>
       <c r="E35">
-        <f>IF(D35=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8392,11 +7601,11 @@
         <v>-0.313624598781926</v>
       </c>
       <c r="D36">
-        <f>ABS(C36)</f>
+        <f t="shared" si="2"/>
         <v>0.313624598781926</v>
       </c>
       <c r="E36">
-        <f>IF(D36=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J36" t="s">
@@ -8417,11 +7626,11 @@
         <v>-0.23561344035589499</v>
       </c>
       <c r="D37">
-        <f>ABS(C37)</f>
+        <f t="shared" si="2"/>
         <v>0.23561344035589499</v>
       </c>
       <c r="E37">
-        <f>IF(D37=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J37">
@@ -8460,11 +7669,11 @@
         <v>-0.34169044949787902</v>
       </c>
       <c r="D38">
-        <f>ABS(C38)</f>
+        <f t="shared" si="2"/>
         <v>0.34169044949787902</v>
       </c>
       <c r="E38">
-        <f>IF(D38=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8479,11 +7688,11 @@
         <v>-0.48590406890780402</v>
       </c>
       <c r="D39">
-        <f>ABS(C39)</f>
+        <f t="shared" si="2"/>
         <v>0.48590406890780402</v>
       </c>
       <c r="E39">
-        <f>IF(D39=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F39" t="s">
@@ -8507,11 +7716,11 @@
         <v>-0.12874557691094801</v>
       </c>
       <c r="D40">
-        <f>ABS(C40)</f>
+        <f t="shared" si="2"/>
         <v>0.12874557691094801</v>
       </c>
       <c r="E40">
-        <f>IF(D40=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F40">
@@ -8562,11 +7771,11 @@
         <v>-0.19235341179832499</v>
       </c>
       <c r="D41">
-        <f>ABS(C41)</f>
+        <f t="shared" si="2"/>
         <v>0.19235341179832499</v>
       </c>
       <c r="E41">
-        <f>IF(D41=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8581,11 +7790,11 @@
         <v>-0.27751208970243202</v>
       </c>
       <c r="D42">
-        <f>ABS(C42)</f>
+        <f t="shared" si="2"/>
         <v>0.27751208970243202</v>
       </c>
       <c r="E42">
-        <f>IF(D42=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8600,11 +7809,11 @@
         <v>-0.37105379755970602</v>
       </c>
       <c r="D43">
-        <f>ABS(C43)</f>
+        <f t="shared" si="2"/>
         <v>0.37105379755970602</v>
       </c>
       <c r="E43">
-        <f>IF(D43=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8619,11 +7828,11 @@
         <v>-0.122128933893676</v>
       </c>
       <c r="D44">
-        <f>ABS(C44)</f>
+        <f t="shared" si="2"/>
         <v>0.122128933893676</v>
       </c>
       <c r="E44">
-        <f>IF(D44=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J44" t="s">
@@ -8644,11 +7853,11 @@
         <v>-0.308971633541124</v>
       </c>
       <c r="D45">
-        <f>ABS(C45)</f>
+        <f t="shared" si="2"/>
         <v>0.308971633541124</v>
       </c>
       <c r="E45">
-        <f>IF(D45=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J45">
@@ -8687,11 +7896,11 @@
         <v>-1.08409711144189</v>
       </c>
       <c r="D46">
-        <f>ABS(C46)</f>
+        <f t="shared" si="2"/>
         <v>1.08409711144189</v>
       </c>
       <c r="E46">
-        <f>IF(D46=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8706,11 +7915,11 @@
         <v>-0.931390536974121</v>
       </c>
       <c r="D47">
-        <f>ABS(C47)</f>
+        <f t="shared" si="2"/>
         <v>0.931390536974121</v>
       </c>
       <c r="E47">
-        <f>IF(D47=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F47" t="s">
@@ -8734,11 +7943,11 @@
         <v>-0.71871803996239803</v>
       </c>
       <c r="D48">
-        <f>ABS(C48)</f>
+        <f t="shared" si="2"/>
         <v>0.71871803996239803</v>
       </c>
       <c r="E48">
-        <f>IF(D48=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F48">
@@ -8789,11 +7998,11 @@
         <v>-0.71419014126594804</v>
       </c>
       <c r="D49">
-        <f>ABS(C49)</f>
+        <f t="shared" si="2"/>
         <v>0.71419014126594804</v>
       </c>
       <c r="E49">
-        <f>IF(D49=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8808,60 +8017,60 @@
         <v>-0.62371636325524604</v>
       </c>
       <c r="D50">
-        <f>ABS(C50)</f>
+        <f t="shared" si="2"/>
         <v>0.62371636325524604</v>
       </c>
       <c r="E50">
-        <f>IF(D50=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J4:L4 N4:P4 F8:H8 J8:L8 N8:P8 J12:L12 N12:P12 F16:H16 J16:L16 N16:P16 J20:L20 N20:P20 F24:H24 J24:L24 N24:P24 J28:L28 N28:P28 F32:H32 J32:L32 N32:P32 J37:L37 N37:P37 D1:D50">
-    <cfRule type="cellIs" dxfId="173" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="110" priority="10" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="11" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="12" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:H40 J40:L40 N40:P40">
-    <cfRule type="cellIs" dxfId="170" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="107" priority="7" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="8" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="9" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:L45 N45:P45">
-    <cfRule type="cellIs" dxfId="167" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="104" priority="4" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="5" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="6" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48 J48:L48 N48:P48">
-    <cfRule type="cellIs" dxfId="164" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="101" priority="1" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="2" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="3" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8891,11 +8100,11 @@
         <v>-0.32747154751076601</v>
       </c>
       <c r="D1">
-        <f>ABS(C1)</f>
+        <f t="shared" ref="D1:D32" si="0">ABS(C1)</f>
         <v>0.32747154751076601</v>
       </c>
       <c r="E1">
-        <f>IF(D1=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" ref="E1:E32" si="1">IF(D1=MIN($D$1:$D$50),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8910,11 +8119,11 @@
         <v>-0.40849862390068198</v>
       </c>
       <c r="D2">
-        <f>ABS(C2)</f>
+        <f t="shared" si="0"/>
         <v>0.40849862390068198</v>
       </c>
       <c r="E2">
-        <f>IF(D2=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8929,11 +8138,11 @@
         <v>-0.98654715245501201</v>
       </c>
       <c r="D3">
-        <f>ABS(C3)</f>
+        <f t="shared" si="0"/>
         <v>0.98654715245501201</v>
       </c>
       <c r="E3">
-        <f>IF(D3=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J3" t="s">
@@ -8954,11 +8163,11 @@
         <v>-1.1666513881829199</v>
       </c>
       <c r="D4">
-        <f>ABS(C4)</f>
+        <f t="shared" si="0"/>
         <v>1.1666513881829199</v>
       </c>
       <c r="E4">
-        <f>IF(D4=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4">
@@ -8997,11 +8206,11 @@
         <v>-0.49897785078428097</v>
       </c>
       <c r="D5">
-        <f>ABS(C5)</f>
+        <f t="shared" si="0"/>
         <v>0.49897785078428097</v>
       </c>
       <c r="E5">
-        <f>IF(D5=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9016,11 +8225,11 @@
         <v>-0.16645872171312401</v>
       </c>
       <c r="D6">
-        <f>ABS(C6)</f>
+        <f t="shared" si="0"/>
         <v>0.16645872171312401</v>
       </c>
       <c r="E6">
-        <f>IF(D6=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9035,11 +8244,11 @@
         <v>-0.39872577948014198</v>
       </c>
       <c r="D7">
-        <f>ABS(C7)</f>
+        <f t="shared" si="0"/>
         <v>0.39872577948014198</v>
       </c>
       <c r="E7">
-        <f>IF(D7=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F7" t="s">
@@ -9063,11 +8272,11 @@
         <v>-0.12130218937623501</v>
       </c>
       <c r="D8">
-        <f>ABS(C8)</f>
+        <f t="shared" si="0"/>
         <v>0.12130218937623501</v>
       </c>
       <c r="E8">
-        <f>IF(D8=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8">
@@ -9118,11 +8327,11 @@
         <v>-0.53429540442778301</v>
       </c>
       <c r="D9">
-        <f>ABS(C9)</f>
+        <f t="shared" si="0"/>
         <v>0.53429540442778301</v>
       </c>
       <c r="E9">
-        <f>IF(D9=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9137,11 +8346,11 @@
         <v>-0.46259449789738499</v>
       </c>
       <c r="D10">
-        <f>ABS(C10)</f>
+        <f t="shared" si="0"/>
         <v>0.46259449789738499</v>
       </c>
       <c r="E10">
-        <f>IF(D10=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9156,11 +8365,11 @@
         <v>-0.66097055510737901</v>
       </c>
       <c r="D11">
-        <f>ABS(C11)</f>
+        <f t="shared" si="0"/>
         <v>0.66097055510737901</v>
       </c>
       <c r="E11">
-        <f>IF(D11=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" t="s">
@@ -9181,11 +8390,11 @@
         <v>-0.135893456803897</v>
       </c>
       <c r="D12">
-        <f>ABS(C12)</f>
+        <f t="shared" si="0"/>
         <v>0.135893456803897</v>
       </c>
       <c r="E12">
-        <f>IF(D12=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12">
@@ -9224,11 +8433,11 @@
         <v>-0.747933448102999</v>
       </c>
       <c r="D13">
-        <f>ABS(C13)</f>
+        <f t="shared" si="0"/>
         <v>0.747933448102999</v>
       </c>
       <c r="E13">
-        <f>IF(D13=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9243,11 +8452,11 @@
         <v>-0.14082610922866501</v>
       </c>
       <c r="D14">
-        <f>ABS(C14)</f>
+        <f t="shared" si="0"/>
         <v>0.14082610922866501</v>
       </c>
       <c r="E14">
-        <f>IF(D14=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9262,11 +8471,11 @@
         <v>-0.231742791649553</v>
       </c>
       <c r="D15">
-        <f>ABS(C15)</f>
+        <f t="shared" si="0"/>
         <v>0.231742791649553</v>
       </c>
       <c r="E15">
-        <f>IF(D15=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15" t="s">
@@ -9290,11 +8499,11 @@
         <v>-0.40911790775679002</v>
       </c>
       <c r="D16">
-        <f>ABS(C16)</f>
+        <f t="shared" si="0"/>
         <v>0.40911790775679002</v>
       </c>
       <c r="E16">
-        <f>IF(D16=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16">
@@ -9345,11 +8554,11 @@
         <v>-0.56852378264748704</v>
       </c>
       <c r="D17">
-        <f>ABS(C17)</f>
+        <f t="shared" si="0"/>
         <v>0.56852378264748704</v>
       </c>
       <c r="E17">
-        <f>IF(D17=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9364,11 +8573,11 @@
         <v>-0.51025316663201203</v>
       </c>
       <c r="D18">
-        <f>ABS(C18)</f>
+        <f t="shared" si="0"/>
         <v>0.51025316663201203</v>
       </c>
       <c r="E18">
-        <f>IF(D18=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9383,11 +8592,11 @@
         <v>-0.19429224180264401</v>
       </c>
       <c r="D19">
-        <f>ABS(C19)</f>
+        <f t="shared" si="0"/>
         <v>0.19429224180264401</v>
       </c>
       <c r="E19">
-        <f>IF(D19=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" t="s">
@@ -9408,11 +8617,11 @@
         <v>-0.49810145084308499</v>
       </c>
       <c r="D20">
-        <f>ABS(C20)</f>
+        <f t="shared" si="0"/>
         <v>0.49810145084308499</v>
       </c>
       <c r="E20">
-        <f>IF(D20=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20">
@@ -9451,11 +8660,11 @@
         <v>-0.68793257426508103</v>
       </c>
       <c r="D21">
-        <f>ABS(C21)</f>
+        <f t="shared" si="0"/>
         <v>0.68793257426508103</v>
       </c>
       <c r="E21">
-        <f>IF(D21=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9470,11 +8679,11 @@
         <v>-0.50367456438673797</v>
       </c>
       <c r="D22">
-        <f>ABS(C22)</f>
+        <f t="shared" si="0"/>
         <v>0.50367456438673797</v>
       </c>
       <c r="E22">
-        <f>IF(D22=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9489,11 +8698,11 @@
         <v>-0.72657244383041297</v>
       </c>
       <c r="D23">
-        <f>ABS(C23)</f>
+        <f t="shared" si="0"/>
         <v>0.72657244383041297</v>
       </c>
       <c r="E23">
-        <f>IF(D23=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F23" t="s">
@@ -9517,11 +8726,11 @@
         <v>-0.21938393747196899</v>
       </c>
       <c r="D24">
-        <f>ABS(C24)</f>
+        <f t="shared" si="0"/>
         <v>0.21938393747196899</v>
       </c>
       <c r="E24">
-        <f>IF(D24=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F24">
@@ -9572,11 +8781,11 @@
         <v>-0.70421022968621005</v>
       </c>
       <c r="D25">
-        <f>ABS(C25)</f>
+        <f t="shared" si="0"/>
         <v>0.70421022968621005</v>
       </c>
       <c r="E25">
-        <f>IF(D25=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9591,11 +8800,11 @@
         <v>-0.508350140679657</v>
       </c>
       <c r="D26">
-        <f>ABS(C26)</f>
+        <f t="shared" si="0"/>
         <v>0.508350140679657</v>
       </c>
       <c r="E26">
-        <f>IF(D26=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9610,11 +8819,11 @@
         <v>-0.26302024891387799</v>
       </c>
       <c r="D27">
-        <f>ABS(C27)</f>
+        <f t="shared" si="0"/>
         <v>0.26302024891387799</v>
       </c>
       <c r="E27">
-        <f>IF(D27=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27" t="s">
@@ -9635,11 +8844,11 @@
         <v>-0.56166995618089199</v>
       </c>
       <c r="D28">
-        <f>ABS(C28)</f>
+        <f t="shared" si="0"/>
         <v>0.56166995618089199</v>
       </c>
       <c r="E28">
-        <f>IF(D28=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28">
@@ -9678,11 +8887,11 @@
         <v>-0.20562310530194899</v>
       </c>
       <c r="D29">
-        <f>ABS(C29)</f>
+        <f t="shared" si="0"/>
         <v>0.20562310530194899</v>
       </c>
       <c r="E29">
-        <f>IF(D29=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9697,11 +8906,11 @@
         <v>-0.17415129239416099</v>
       </c>
       <c r="D30">
-        <f>ABS(C30)</f>
+        <f t="shared" si="0"/>
         <v>0.17415129239416099</v>
       </c>
       <c r="E30">
-        <f>IF(D30=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9716,11 +8925,11 @@
         <v>-0.33431245310395002</v>
       </c>
       <c r="D31">
-        <f>ABS(C31)</f>
+        <f t="shared" si="0"/>
         <v>0.33431245310395002</v>
       </c>
       <c r="E31">
-        <f>IF(D31=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F31" t="s">
@@ -9744,11 +8953,11 @@
         <v>-0.30247884444915102</v>
       </c>
       <c r="D32">
-        <f>ABS(C32)</f>
+        <f t="shared" si="0"/>
         <v>0.30247884444915102</v>
       </c>
       <c r="E32">
-        <f>IF(D32=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F32">
@@ -9799,11 +9008,11 @@
         <v>-0.245244218821042</v>
       </c>
       <c r="D33">
-        <f>ABS(C33)</f>
+        <f t="shared" ref="D33:D50" si="2">ABS(C33)</f>
         <v>0.245244218821042</v>
       </c>
       <c r="E33">
-        <f>IF(D33=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" ref="E33:E64" si="3">IF(D33=MIN($D$1:$D$50),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9818,11 +9027,11 @@
         <v>-0.17781316812469899</v>
       </c>
       <c r="D34">
-        <f>ABS(C34)</f>
+        <f t="shared" si="2"/>
         <v>0.17781316812469899</v>
       </c>
       <c r="E34">
-        <f>IF(D34=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9837,11 +9046,11 @@
         <v>-0.144745986572726</v>
       </c>
       <c r="D35">
-        <f>ABS(C35)</f>
+        <f t="shared" si="2"/>
         <v>0.144745986572726</v>
       </c>
       <c r="E35">
-        <f>IF(D35=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J35" t="s">
@@ -9862,11 +9071,11 @@
         <v>-2.7890310007219001E-2</v>
       </c>
       <c r="D36">
-        <f>ABS(C36)</f>
+        <f t="shared" si="2"/>
         <v>2.7890310007219001E-2</v>
       </c>
       <c r="E36">
-        <f>IF(D36=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J36">
@@ -9905,11 +9114,11 @@
         <v>-0.19105883615401101</v>
       </c>
       <c r="D37">
-        <f>ABS(C37)</f>
+        <f t="shared" si="2"/>
         <v>0.19105883615401101</v>
       </c>
       <c r="E37">
-        <f>IF(D37=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9924,11 +9133,11 @@
         <v>-0.13195451765542701</v>
       </c>
       <c r="D38">
-        <f>ABS(C38)</f>
+        <f t="shared" si="2"/>
         <v>0.13195451765542701</v>
       </c>
       <c r="E38">
-        <f>IF(D38=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9943,11 +9152,11 @@
         <v>-9.6703401455949703E-2</v>
       </c>
       <c r="D39">
-        <f>ABS(C39)</f>
+        <f t="shared" si="2"/>
         <v>9.6703401455949703E-2</v>
       </c>
       <c r="E39">
-        <f>IF(D39=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F39" t="s">
@@ -9971,11 +9180,11 @@
         <v>-0.13234029384034501</v>
       </c>
       <c r="D40">
-        <f>ABS(C40)</f>
+        <f t="shared" si="2"/>
         <v>0.13234029384034501</v>
       </c>
       <c r="E40">
-        <f>IF(D40=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F40">
@@ -10026,11 +9235,11 @@
         <v>-0.165166986960358</v>
       </c>
       <c r="D41">
-        <f>ABS(C41)</f>
+        <f t="shared" si="2"/>
         <v>0.165166986960358</v>
       </c>
       <c r="E41">
-        <f>IF(D41=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10045,11 +9254,11 @@
         <v>-4.7900711878997103E-2</v>
       </c>
       <c r="D42">
-        <f>ABS(C42)</f>
+        <f t="shared" si="2"/>
         <v>4.7900711878997103E-2</v>
       </c>
       <c r="E42">
-        <f>IF(D42=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10064,11 +9273,11 @@
         <v>-0.203096182271221</v>
       </c>
       <c r="D43">
-        <f>ABS(C43)</f>
+        <f t="shared" si="2"/>
         <v>0.203096182271221</v>
       </c>
       <c r="E43">
-        <f>IF(D43=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J43" t="s">
@@ -10089,11 +9298,11 @@
         <v>-0.138551147607685</v>
       </c>
       <c r="D44">
-        <f>ABS(C44)</f>
+        <f t="shared" si="2"/>
         <v>0.138551147607685</v>
       </c>
       <c r="E44">
-        <f>IF(D44=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J44">
@@ -10132,11 +9341,11 @@
         <v>-1.26333390391735E-2</v>
       </c>
       <c r="D45">
-        <f>ABS(C45)</f>
+        <f t="shared" si="2"/>
         <v>1.26333390391735E-2</v>
       </c>
       <c r="E45">
-        <f>IF(D45=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10151,11 +9360,11 @@
         <v>-0.13199245425949699</v>
       </c>
       <c r="D46">
-        <f>ABS(C46)</f>
+        <f t="shared" si="2"/>
         <v>0.13199245425949699</v>
       </c>
       <c r="E46">
-        <f>IF(D46=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10170,11 +9379,11 @@
         <v>-0.285557441131992</v>
       </c>
       <c r="D47">
-        <f>ABS(C47)</f>
+        <f t="shared" si="2"/>
         <v>0.285557441131992</v>
       </c>
       <c r="E47">
-        <f>IF(D47=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F47" t="s">
@@ -10198,11 +9407,11 @@
         <v>-0.14521602551580601</v>
       </c>
       <c r="D48">
-        <f>ABS(C48)</f>
+        <f t="shared" si="2"/>
         <v>0.14521602551580601</v>
       </c>
       <c r="E48">
-        <f>IF(D48=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F48">
@@ -10253,11 +9462,11 @@
         <v>-0.36522893712661397</v>
       </c>
       <c r="D49">
-        <f>ABS(C49)</f>
+        <f t="shared" si="2"/>
         <v>0.36522893712661397</v>
       </c>
       <c r="E49">
-        <f>IF(D49=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10272,11 +9481,11 @@
         <v>-0.46942008369454502</v>
       </c>
       <c r="D50">
-        <f>ABS(C50)</f>
+        <f t="shared" si="2"/>
         <v>0.46942008369454502</v>
       </c>
       <c r="E50">
-        <f>IF(D50=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10291,11 +9500,11 @@
         <v>-0.60344371393573404</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51:D86" si="0">ABS(C51)</f>
+        <f t="shared" ref="D51:D86" si="4">ABS(C51)</f>
         <v>0.60344371393573404</v>
       </c>
       <c r="E51">
-        <f>IF(D51=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J51" t="s">
@@ -10316,11 +9525,11 @@
         <v>-0.41193802537832003</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.41193802537832003</v>
       </c>
       <c r="E52">
-        <f>IF(D52=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J52">
@@ -10359,11 +9568,11 @@
         <v>-8.4990129717842602E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8.4990129717842602E-2</v>
       </c>
       <c r="E53">
-        <f>IF(D53=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10378,11 +9587,11 @@
         <v>-0.16612399580472001</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.16612399580472001</v>
       </c>
       <c r="E54">
-        <f>IF(D54=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10397,11 +9606,11 @@
         <v>-0.24019365401353501</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.24019365401353501</v>
       </c>
       <c r="E55">
-        <f>IF(D55=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F55" t="s">
@@ -10425,11 +9634,11 @@
         <v>-0.184235200732393</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.184235200732393</v>
       </c>
       <c r="E56">
-        <f>IF(D56=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F56">
@@ -10480,11 +9689,11 @@
         <v>-0.190611823911774</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.190611823911774</v>
       </c>
       <c r="E57">
-        <f>IF(D57=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10499,11 +9708,11 @@
         <v>-0.20546209740552401</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.20546209740552401</v>
       </c>
       <c r="E58">
-        <f>IF(D58=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10518,11 +9727,11 @@
         <v>-0.37532604057813601</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.37532604057813601</v>
       </c>
       <c r="E59">
-        <f>IF(D59=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J59" t="s">
@@ -10543,11 +9752,11 @@
         <v>-0.15079247015593999</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.15079247015593999</v>
       </c>
       <c r="E60">
-        <f>IF(D60=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J60">
@@ -10586,11 +9795,11 @@
         <v>-0.33686749995500698</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.33686749995500698</v>
       </c>
       <c r="E61">
-        <f>IF(D61=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10605,11 +9814,11 @@
         <v>-0.25453964512194499</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.25453964512194499</v>
       </c>
       <c r="E62">
-        <f>IF(D62=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10624,11 +9833,11 @@
         <v>-0.44382706562583701</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.44382706562583701</v>
       </c>
       <c r="E63">
-        <f>IF(D63=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F63" t="s">
@@ -10652,11 +9861,11 @@
         <v>-0.39499460782516999</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.39499460782516999</v>
       </c>
       <c r="E64">
-        <f>IF(D64=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F64">
@@ -10707,11 +9916,11 @@
         <v>-0.25350175322220703</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.25350175322220703</v>
       </c>
       <c r="E65">
-        <f>IF(D65=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" ref="E65:E82" si="5">IF(D65=MIN($D$1:$D$50),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10726,11 +9935,11 @@
         <v>-0.140313849084583</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.140313849084583</v>
       </c>
       <c r="E66">
-        <f>IF(D66=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10745,11 +9954,11 @@
         <v>-0.19635571793613901</v>
       </c>
       <c r="D67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.19635571793613901</v>
       </c>
       <c r="E67">
-        <f>IF(D67=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J67" t="s">
@@ -10770,11 +9979,11 @@
         <v>-0.193455251190187</v>
       </c>
       <c r="D68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.193455251190187</v>
       </c>
       <c r="E68">
-        <f>IF(D68=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J68">
@@ -10813,11 +10022,11 @@
         <v>-0.16102680876376499</v>
       </c>
       <c r="D69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.16102680876376499</v>
       </c>
       <c r="E69">
-        <f>IF(D69=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10832,11 +10041,11 @@
         <v>-0.52424538202173399</v>
       </c>
       <c r="D70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.52424538202173399</v>
       </c>
       <c r="E70">
-        <f>IF(D70=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10851,11 +10060,11 @@
         <v>-0.42420263536456099</v>
       </c>
       <c r="D71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.42420263536456099</v>
       </c>
       <c r="E71">
-        <f>IF(D71=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F71" t="s">
@@ -10879,11 +10088,11 @@
         <v>-0.263104710669048</v>
       </c>
       <c r="D72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.263104710669048</v>
       </c>
       <c r="E72">
-        <f>IF(D72=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F72">
@@ -10934,11 +10143,11 @@
         <v>-0.32067091679872101</v>
       </c>
       <c r="D73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.32067091679872101</v>
       </c>
       <c r="E73">
-        <f>IF(D73=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10953,11 +10162,11 @@
         <v>-0.105091330994752</v>
       </c>
       <c r="D74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.105091330994752</v>
       </c>
       <c r="E74">
-        <f>IF(D74=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10972,11 +10181,11 @@
         <v>-0.25459804651006601</v>
       </c>
       <c r="D75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.25459804651006601</v>
       </c>
       <c r="E75">
-        <f>IF(D75=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J75" t="s">
@@ -10997,11 +10206,11 @@
         <v>-0.27250810729216202</v>
       </c>
       <c r="D76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.27250810729216202</v>
       </c>
       <c r="E76">
-        <f>IF(D76=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J76">
@@ -11040,11 +10249,11 @@
         <v>-0.21134552381799199</v>
       </c>
       <c r="D77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.21134552381799199</v>
       </c>
       <c r="E77">
-        <f>IF(D77=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11059,11 +10268,11 @@
         <v>-0.608474418841217</v>
       </c>
       <c r="D78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.608474418841217</v>
       </c>
       <c r="E78">
-        <f>IF(D78=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11078,11 +10287,11 @@
         <v>-0.44739150885113899</v>
       </c>
       <c r="D79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.44739150885113899</v>
       </c>
       <c r="E79">
-        <f>IF(D79=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F79" t="s">
@@ -11106,11 +10315,11 @@
         <v>-0.18210577384662899</v>
       </c>
       <c r="D80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.18210577384662899</v>
       </c>
       <c r="E80">
-        <f>IF(D80=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F80">
@@ -11161,11 +10370,11 @@
         <v>-0.38835454342380998</v>
       </c>
       <c r="D81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.38835454342380998</v>
       </c>
       <c r="E81">
-        <f>IF(D81=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F81" t="s">
@@ -11183,11 +10392,11 @@
         <v>-0.40676022989218902</v>
       </c>
       <c r="D82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.40676022989218902</v>
       </c>
       <c r="E82">
-        <f>IF(D82=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F82">
@@ -11214,11 +10423,11 @@
         <v>-0.20471834401609901</v>
       </c>
       <c r="D83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.20471834401609901</v>
       </c>
       <c r="E83">
-        <f t="shared" ref="E83:E86" si="1">IF(D83=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" ref="E83:E86" si="6">IF(D83=MIN($D$1:$D$50),1,0)</f>
         <v>0</v>
       </c>
       <c r="F83" t="s">
@@ -11236,11 +10445,11 @@
         <v>-0.62320536399844595</v>
       </c>
       <c r="D84">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.62320536399844595</v>
       </c>
       <c r="E84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F84">
@@ -11267,11 +10476,11 @@
         <v>-0.317712272197057</v>
       </c>
       <c r="D85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.317712272197057</v>
       </c>
       <c r="E85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F85" t="s">
@@ -11289,11 +10498,11 @@
         <v>-0.29372287743582798</v>
       </c>
       <c r="D86">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.29372287743582798</v>
       </c>
       <c r="E86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F86">
@@ -11311,254 +10520,254 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J4:L4 N4:P4 F8:H8 J8:L8 N8:P8 J37:L37 N37:P37 D1:D86 J12:L12 N12:P12 F16:H16 J16:L16 N16:P16 J20:L20 N20:P20 F24:H24 J24:L24 N24:P24 J28:L28 N28:P28 F32:H32 J32:L32 N32:P32">
-    <cfRule type="cellIs" dxfId="161" priority="61" operator="between">
+    <cfRule type="cellIs" dxfId="98" priority="61" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="62" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="63" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="63" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:H40 J40:L40 N40:P40">
-    <cfRule type="cellIs" dxfId="158" priority="58" operator="between">
+    <cfRule type="cellIs" dxfId="95" priority="58" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="59" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="60" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:L45 N45:P45">
-    <cfRule type="cellIs" dxfId="155" priority="55" operator="between">
+    <cfRule type="cellIs" dxfId="92" priority="55" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="56" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="57" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48 J48:L48 N48:P48">
-    <cfRule type="cellIs" dxfId="152" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="89" priority="52" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="53" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="54" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53:L53 N53:P53">
-    <cfRule type="cellIs" dxfId="149" priority="49" operator="between">
+    <cfRule type="cellIs" dxfId="86" priority="49" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="50" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="51" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:H56 J56:L56 N56:P56">
-    <cfRule type="cellIs" dxfId="146" priority="46" operator="between">
+    <cfRule type="cellIs" dxfId="83" priority="46" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="47" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="48" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61:L61 N61:P61">
-    <cfRule type="cellIs" dxfId="143" priority="43" operator="between">
+    <cfRule type="cellIs" dxfId="80" priority="43" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="44" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="45" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64:H64 J64:L64 N64:P64">
-    <cfRule type="cellIs" dxfId="140" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="77" priority="40" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="41" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="42" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69:L69 N69:P69">
-    <cfRule type="cellIs" dxfId="137" priority="37" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="37" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="38" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="39" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:H72 J72:L72 N72:P72">
-    <cfRule type="cellIs" dxfId="134" priority="34" operator="between">
+    <cfRule type="cellIs" dxfId="71" priority="34" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="35" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="36" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77:L77 N77:P77">
-    <cfRule type="cellIs" dxfId="131" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="31" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="32" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="33" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:H80 J80:L80 N80:P80">
-    <cfRule type="cellIs" dxfId="128" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="28" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="29" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="30" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82:H82">
-    <cfRule type="cellIs" dxfId="125" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="25" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="26" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="27" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:L36 N36:P36 F40:H40 J40:L40 N40:P40">
-    <cfRule type="cellIs" dxfId="122" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="22" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="23" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="24" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:L44 N44:P44 F48:H48 J48:L48 N48:P48">
-    <cfRule type="cellIs" dxfId="119" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="56" priority="19" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="20" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="21" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:L52 N52:P52 F56:H56 J56:L56 N56:P56">
-    <cfRule type="cellIs" dxfId="116" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="16" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="17" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="18" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60:L60 N60:P60 F64:H64 J64:L64 N64:P64">
-    <cfRule type="cellIs" dxfId="113" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="13" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="14" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="15" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:L68 N68:P68 F72:H72 J72:L72 N72:P72">
-    <cfRule type="cellIs" dxfId="110" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="10" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="11" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="12" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J76:L76 N76:P76 F80:H80 J80:L80 N80:P80">
-    <cfRule type="cellIs" dxfId="107" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="7" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="9" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:H84">
-    <cfRule type="cellIs" dxfId="104" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:H86">
-    <cfRule type="cellIs" dxfId="101" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11570,8 +10779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A70" sqref="A1:Q70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11588,11 +10797,11 @@
         <v>-0.313305401996541</v>
       </c>
       <c r="D1">
-        <f>ABS(C1)</f>
+        <f t="shared" ref="D1:D32" si="0">ABS(C1)</f>
         <v>0.313305401996541</v>
       </c>
       <c r="E1">
-        <f>IF(D1=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" ref="E1:E32" si="1">IF(D1=MIN($D$1:$D$50),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -11607,11 +10816,11 @@
         <v>-0.399463222220931</v>
       </c>
       <c r="D2">
-        <f>ABS(C2)</f>
+        <f t="shared" si="0"/>
         <v>0.399463222220931</v>
       </c>
       <c r="E2">
-        <f>IF(D2=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11626,11 +10835,11 @@
         <v>-0.98207706079038304</v>
       </c>
       <c r="D3">
-        <f>ABS(C3)</f>
+        <f t="shared" si="0"/>
         <v>0.98207706079038304</v>
       </c>
       <c r="E3">
-        <f>IF(D3=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J3" t="s">
@@ -11651,11 +10860,11 @@
         <v>-1.1904552499805501</v>
       </c>
       <c r="D4">
-        <f>ABS(C4)</f>
+        <f t="shared" si="0"/>
         <v>1.1904552499805501</v>
       </c>
       <c r="E4">
-        <f>IF(D4=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4">
@@ -11694,11 +10903,11 @@
         <v>-0.46901569164060702</v>
       </c>
       <c r="D5">
-        <f>ABS(C5)</f>
+        <f t="shared" si="0"/>
         <v>0.46901569164060702</v>
       </c>
       <c r="E5">
-        <f>IF(D5=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11713,11 +10922,11 @@
         <v>-0.15208740535969201</v>
       </c>
       <c r="D6">
-        <f>ABS(C6)</f>
+        <f t="shared" si="0"/>
         <v>0.15208740535969201</v>
       </c>
       <c r="E6">
-        <f>IF(D6=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11732,11 +10941,11 @@
         <v>-0.36512621152052299</v>
       </c>
       <c r="D7">
-        <f>ABS(C7)</f>
+        <f t="shared" si="0"/>
         <v>0.36512621152052299</v>
       </c>
       <c r="E7">
-        <f>IF(D7=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F7" t="s">
@@ -11760,11 +10969,11 @@
         <v>-0.12125613578356501</v>
       </c>
       <c r="D8">
-        <f>ABS(C8)</f>
+        <f t="shared" si="0"/>
         <v>0.12125613578356501</v>
       </c>
       <c r="E8">
-        <f>IF(D8=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F8">
@@ -11815,11 +11024,11 @@
         <v>-0.50056473309652905</v>
       </c>
       <c r="D9">
-        <f>ABS(C9)</f>
+        <f t="shared" si="0"/>
         <v>0.50056473309652905</v>
       </c>
       <c r="E9">
-        <f>IF(D9=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11834,11 +11043,11 @@
         <v>-0.45053403249462598</v>
       </c>
       <c r="D10">
-        <f>ABS(C10)</f>
+        <f t="shared" si="0"/>
         <v>0.45053403249462598</v>
       </c>
       <c r="E10">
-        <f>IF(D10=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11853,11 +11062,11 @@
         <v>-0.62222149939767601</v>
       </c>
       <c r="D11">
-        <f>ABS(C11)</f>
+        <f t="shared" si="0"/>
         <v>0.62222149939767601</v>
       </c>
       <c r="E11">
-        <f>IF(D11=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" t="s">
@@ -11878,11 +11087,11 @@
         <v>-0.13779076839540899</v>
       </c>
       <c r="D12">
-        <f>ABS(C12)</f>
+        <f t="shared" si="0"/>
         <v>0.13779076839540899</v>
       </c>
       <c r="E12">
-        <f>IF(D12=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12">
@@ -11921,11 +11130,11 @@
         <v>-0.73828848278141501</v>
       </c>
       <c r="D13">
-        <f>ABS(C13)</f>
+        <f t="shared" si="0"/>
         <v>0.73828848278141501</v>
       </c>
       <c r="E13">
-        <f>IF(D13=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11940,11 +11149,11 @@
         <v>-0.130298474752573</v>
       </c>
       <c r="D14">
-        <f>ABS(C14)</f>
+        <f t="shared" si="0"/>
         <v>0.130298474752573</v>
       </c>
       <c r="E14">
-        <f>IF(D14=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11959,11 +11168,11 @@
         <v>-0.23555893277978601</v>
       </c>
       <c r="D15">
-        <f>ABS(C15)</f>
+        <f t="shared" si="0"/>
         <v>0.23555893277978601</v>
       </c>
       <c r="E15">
-        <f>IF(D15=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15" t="s">
@@ -11987,11 +11196,11 @@
         <v>-0.41528349932240399</v>
       </c>
       <c r="D16">
-        <f>ABS(C16)</f>
+        <f t="shared" si="0"/>
         <v>0.41528349932240399</v>
       </c>
       <c r="E16">
-        <f>IF(D16=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16">
@@ -12042,11 +11251,11 @@
         <v>-0.52399348095083598</v>
       </c>
       <c r="D17">
-        <f>ABS(C17)</f>
+        <f t="shared" si="0"/>
         <v>0.52399348095083598</v>
       </c>
       <c r="E17">
-        <f>IF(D17=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12061,11 +11270,11 @@
         <v>-0.484043996727684</v>
       </c>
       <c r="D18">
-        <f>ABS(C18)</f>
+        <f t="shared" si="0"/>
         <v>0.484043996727684</v>
       </c>
       <c r="E18">
-        <f>IF(D18=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12080,11 +11289,11 @@
         <v>-0.183536129875631</v>
       </c>
       <c r="D19">
-        <f>ABS(C19)</f>
+        <f t="shared" si="0"/>
         <v>0.183536129875631</v>
       </c>
       <c r="E19">
-        <f>IF(D19=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" t="s">
@@ -12105,11 +11314,11 @@
         <v>-0.47569637304924101</v>
       </c>
       <c r="D20">
-        <f>ABS(C20)</f>
+        <f t="shared" si="0"/>
         <v>0.47569637304924101</v>
       </c>
       <c r="E20">
-        <f>IF(D20=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20">
@@ -12148,11 +11357,11 @@
         <v>-0.62954155575175097</v>
       </c>
       <c r="D21">
-        <f>ABS(C21)</f>
+        <f t="shared" si="0"/>
         <v>0.62954155575175097</v>
       </c>
       <c r="E21">
-        <f>IF(D21=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12167,11 +11376,11 @@
         <v>-0.46837885098940002</v>
       </c>
       <c r="D22">
-        <f>ABS(C22)</f>
+        <f t="shared" si="0"/>
         <v>0.46837885098940002</v>
       </c>
       <c r="E22">
-        <f>IF(D22=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12186,11 +11395,11 @@
         <v>-0.69117887688562896</v>
       </c>
       <c r="D23">
-        <f>ABS(C23)</f>
+        <f t="shared" si="0"/>
         <v>0.69117887688562896</v>
       </c>
       <c r="E23">
-        <f>IF(D23=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F23" t="s">
@@ -12214,11 +11423,11 @@
         <v>-0.20425717672576599</v>
       </c>
       <c r="D24">
-        <f>ABS(C24)</f>
+        <f t="shared" si="0"/>
         <v>0.20425717672576599</v>
       </c>
       <c r="E24">
-        <f>IF(D24=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F24">
@@ -12269,11 +11478,11 @@
         <v>-0.68133831023503999</v>
       </c>
       <c r="D25">
-        <f>ABS(C25)</f>
+        <f t="shared" si="0"/>
         <v>0.68133831023503999</v>
       </c>
       <c r="E25">
-        <f>IF(D25=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12288,11 +11497,11 @@
         <v>-0.47017336897614698</v>
       </c>
       <c r="D26">
-        <f>ABS(C26)</f>
+        <f t="shared" si="0"/>
         <v>0.47017336897614698</v>
       </c>
       <c r="E26">
-        <f>IF(D26=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12307,11 +11516,11 @@
         <v>-0.224050052907866</v>
       </c>
       <c r="D27">
-        <f>ABS(C27)</f>
+        <f t="shared" si="0"/>
         <v>0.224050052907866</v>
       </c>
       <c r="E27">
-        <f>IF(D27=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27" t="s">
@@ -12332,11 +11541,11 @@
         <v>-0.54294813419605703</v>
       </c>
       <c r="D28">
-        <f>ABS(C28)</f>
+        <f t="shared" si="0"/>
         <v>0.54294813419605703</v>
       </c>
       <c r="E28">
-        <f>IF(D28=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28">
@@ -12375,11 +11584,11 @@
         <v>-0.191316004264898</v>
       </c>
       <c r="D29">
-        <f>ABS(C29)</f>
+        <f t="shared" si="0"/>
         <v>0.191316004264898</v>
       </c>
       <c r="E29">
-        <f>IF(D29=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12394,11 +11603,11 @@
         <v>-0.187733545521866</v>
       </c>
       <c r="D30">
-        <f>ABS(C30)</f>
+        <f t="shared" si="0"/>
         <v>0.187733545521866</v>
       </c>
       <c r="E30">
-        <f>IF(D30=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12413,11 +11622,11 @@
         <v>-0.327635111841306</v>
       </c>
       <c r="D31">
-        <f>ABS(C31)</f>
+        <f t="shared" si="0"/>
         <v>0.327635111841306</v>
       </c>
       <c r="E31">
-        <f>IF(D31=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F31" t="s">
@@ -12441,11 +11650,11 @@
         <v>-0.29929320876984999</v>
       </c>
       <c r="D32">
-        <f>ABS(C32)</f>
+        <f t="shared" si="0"/>
         <v>0.29929320876984999</v>
       </c>
       <c r="E32">
-        <f>IF(D32=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F32">
@@ -12496,11 +11705,11 @@
         <v>-0.35664851474632098</v>
       </c>
       <c r="D33">
-        <f>ABS(C33)</f>
+        <f t="shared" ref="D33:D50" si="2">ABS(C33)</f>
         <v>0.35664851474632098</v>
       </c>
       <c r="E33">
-        <f>IF(D33=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" ref="E33:E64" si="3">IF(D33=MIN($D$1:$D$50),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12515,11 +11724,11 @@
         <v>-0.51770608366266901</v>
       </c>
       <c r="D34">
-        <f>ABS(C34)</f>
+        <f t="shared" si="2"/>
         <v>0.51770608366266901</v>
       </c>
       <c r="E34">
-        <f>IF(D34=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12534,11 +11743,11 @@
         <v>-0.88924627853976501</v>
       </c>
       <c r="D35">
-        <f>ABS(C35)</f>
+        <f t="shared" si="2"/>
         <v>0.88924627853976501</v>
       </c>
       <c r="E35">
-        <f>IF(D35=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J35" t="s">
@@ -12559,11 +11768,11 @@
         <v>-0.51096637342216999</v>
       </c>
       <c r="D36">
-        <f>ABS(C36)</f>
+        <f t="shared" si="2"/>
         <v>0.51096637342216999</v>
       </c>
       <c r="E36">
-        <f>IF(D36=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J36">
@@ -12602,11 +11811,11 @@
         <v>-0.132650836715965</v>
       </c>
       <c r="D37">
-        <f>ABS(C37)</f>
+        <f t="shared" si="2"/>
         <v>0.132650836715965</v>
       </c>
       <c r="E37">
-        <f>IF(D37=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12621,11 +11830,11 @@
         <v>-0.15792338015382601</v>
       </c>
       <c r="D38">
-        <f>ABS(C38)</f>
+        <f t="shared" si="2"/>
         <v>0.15792338015382601</v>
       </c>
       <c r="E38">
-        <f>IF(D38=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12640,11 +11849,11 @@
         <v>-0.32714298610411902</v>
       </c>
       <c r="D39">
-        <f>ABS(C39)</f>
+        <f t="shared" si="2"/>
         <v>0.32714298610411902</v>
       </c>
       <c r="E39">
-        <f>IF(D39=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F39" t="s">
@@ -12668,11 +11877,11 @@
         <v>-0.21669993939931601</v>
       </c>
       <c r="D40">
-        <f>ABS(C40)</f>
+        <f t="shared" si="2"/>
         <v>0.21669993939931601</v>
       </c>
       <c r="E40">
-        <f>IF(D40=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F40">
@@ -12723,11 +11932,11 @@
         <v>-0.19496053624095899</v>
       </c>
       <c r="D41">
-        <f>ABS(C41)</f>
+        <f t="shared" si="2"/>
         <v>0.19496053624095899</v>
       </c>
       <c r="E41">
-        <f>IF(D41=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12742,11 +11951,11 @@
         <v>-0.213058874693728</v>
       </c>
       <c r="D42">
-        <f>ABS(C42)</f>
+        <f t="shared" si="2"/>
         <v>0.213058874693728</v>
       </c>
       <c r="E42">
-        <f>IF(D42=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12761,11 +11970,11 @@
         <v>-0.37393592622323002</v>
       </c>
       <c r="D43">
-        <f>ABS(C43)</f>
+        <f t="shared" si="2"/>
         <v>0.37393592622323002</v>
       </c>
       <c r="E43">
-        <f>IF(D43=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J43" t="s">
@@ -12786,11 +11995,11 @@
         <v>-0.168598875571604</v>
       </c>
       <c r="D44">
-        <f>ABS(C44)</f>
+        <f t="shared" si="2"/>
         <v>0.168598875571604</v>
       </c>
       <c r="E44">
-        <f>IF(D44=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J44">
@@ -12829,11 +12038,11 @@
         <v>-0.356141979378368</v>
       </c>
       <c r="D45">
-        <f>ABS(C45)</f>
+        <f t="shared" si="2"/>
         <v>0.356141979378368</v>
       </c>
       <c r="E45">
-        <f>IF(D45=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12848,11 +12057,11 @@
         <v>-0.241003537788929</v>
       </c>
       <c r="D46">
-        <f>ABS(C46)</f>
+        <f t="shared" si="2"/>
         <v>0.241003537788929</v>
       </c>
       <c r="E46">
-        <f>IF(D46=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12867,11 +12076,11 @@
         <v>-0.44500688916232001</v>
       </c>
       <c r="D47">
-        <f>ABS(C47)</f>
+        <f t="shared" si="2"/>
         <v>0.44500688916232001</v>
       </c>
       <c r="E47">
-        <f>IF(D47=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F47" t="s">
@@ -12895,11 +12104,11 @@
         <v>-0.39073214437234199</v>
       </c>
       <c r="D48">
-        <f>ABS(C48)</f>
+        <f t="shared" si="2"/>
         <v>0.39073214437234199</v>
       </c>
       <c r="E48">
-        <f>IF(D48=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F48">
@@ -12950,11 +12159,11 @@
         <v>-0.26357497787626599</v>
       </c>
       <c r="D49">
-        <f>ABS(C49)</f>
+        <f t="shared" si="2"/>
         <v>0.26357497787626599</v>
       </c>
       <c r="E49">
-        <f>IF(D49=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12969,11 +12178,11 @@
         <v>-0.123882605260873</v>
       </c>
       <c r="D50">
-        <f>ABS(C50)</f>
+        <f t="shared" si="2"/>
         <v>0.123882605260873</v>
       </c>
       <c r="E50">
-        <f>IF(D50=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12988,11 +12197,11 @@
         <v>-0.172736468133633</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51:D86" si="0">ABS(C51)</f>
+        <f t="shared" ref="D51:D70" si="4">ABS(C51)</f>
         <v>0.172736468133633</v>
       </c>
       <c r="E51">
-        <f>IF(D51=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J51" t="s">
@@ -13013,11 +12222,11 @@
         <v>-0.18732062972305499</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.18732062972305499</v>
       </c>
       <c r="E52">
-        <f>IF(D52=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J52">
@@ -13056,11 +12265,11 @@
         <v>-0.16483192023872201</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.16483192023872201</v>
       </c>
       <c r="E53">
-        <f>IF(D53=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13075,11 +12284,11 @@
         <v>-0.51192258803137203</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.51192258803137203</v>
       </c>
       <c r="E54">
-        <f>IF(D54=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13094,11 +12303,11 @@
         <v>-0.38642515566115099</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.38642515566115099</v>
       </c>
       <c r="E55">
-        <f>IF(D55=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F55" t="s">
@@ -13122,11 +12331,11 @@
         <v>-0.266130062101263</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.266130062101263</v>
       </c>
       <c r="E56">
-        <f>IF(D56=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F56">
@@ -13177,11 +12386,11 @@
         <v>-0.33379001947050402</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.33379001947050402</v>
       </c>
       <c r="E57">
-        <f>IF(D57=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13196,11 +12405,11 @@
         <v>-9.9376660049238105E-2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.9376660049238105E-2</v>
       </c>
       <c r="E58">
-        <f>IF(D58=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13215,11 +12424,11 @@
         <v>-0.22768494585503199</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.22768494585503199</v>
       </c>
       <c r="E59">
-        <f>IF(D59=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J59" t="s">
@@ -13240,11 +12449,11 @@
         <v>-0.26484811662474</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.26484811662474</v>
       </c>
       <c r="E60">
-        <f>IF(D60=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J60">
@@ -13283,11 +12492,11 @@
         <v>-0.20239309368269801</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.20239309368269801</v>
       </c>
       <c r="E61">
-        <f>IF(D61=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13302,11 +12511,11 @@
         <v>-0.59690759459466503</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.59690759459466503</v>
       </c>
       <c r="E62">
-        <f>IF(D62=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13321,11 +12530,11 @@
         <v>-0.42607221482568303</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.42607221482568303</v>
       </c>
       <c r="E63">
-        <f>IF(D63=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F63" t="s">
@@ -13349,11 +12558,11 @@
         <v>-0.17766647376370601</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.17766647376370601</v>
       </c>
       <c r="E64">
-        <f>IF(D64=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F64">
@@ -13404,11 +12613,11 @@
         <v>-0.362348580902359</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.362348580902359</v>
       </c>
       <c r="E65">
-        <f>IF(D65=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" ref="E65:E70" si="5">IF(D65=MIN($D$1:$D$50),1,0)</f>
         <v>0</v>
       </c>
       <c r="F65" t="s">
@@ -13426,11 +12635,11 @@
         <v>-0.391586429608623</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.391586429608623</v>
       </c>
       <c r="E66">
-        <f>IF(D66=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F66">
@@ -13457,11 +12666,11 @@
         <v>-0.184351223180518</v>
       </c>
       <c r="D67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.184351223180518</v>
       </c>
       <c r="E67">
-        <f>IF(D67=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F67" t="s">
@@ -13479,11 +12688,11 @@
         <v>-0.62216285814984895</v>
       </c>
       <c r="D68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.62216285814984895</v>
       </c>
       <c r="E68">
-        <f>IF(D68=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F68">
@@ -13510,11 +12719,11 @@
         <v>-0.31645275086969099</v>
       </c>
       <c r="D69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.31645275086969099</v>
       </c>
       <c r="E69">
-        <f>IF(D69=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F69" t="s">
@@ -13532,11 +12741,11 @@
         <v>-0.28529603803412901</v>
       </c>
       <c r="D70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.28529603803412901</v>
       </c>
       <c r="E70">
-        <f>IF(D70=MIN($D$1:$D$50),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F70">
@@ -13553,7 +12762,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J4:L4 N4:P4 F8:H8 J8:L8 N8:P8 N64:P64 J12:L12 N12:P12 F16:H16 J16:L16 N16:P16 J20:L20 N20:P20 F24:H24 J24:L24 N24:P24 J28:L28 N28:P28 F32:H32 J32:L32 N32:P32 J36:L37 N36:P37 F40:H40 J40:L40 N40:P40 J44:L45 N44:P45 F48:H48 J48:L48 N48:P48 J52:L53 N52:P53 F56:H56 J56:L56 N56:P56 J60:L61 N60:P61 F64:H64 J64:L64 D1:D70">
+  <conditionalFormatting sqref="J4:L4 N4:P4 F8:H8 J8:L8 N8:P8 N64:P64 J12:L12 N12:P12 F16:H16 J16:L16 N16:P16 J20:L20 N20:P20 F24:H24 J24:L24 N24:P24 J28:L28 N28:P28 F32:H32 J32:L32 N32:P32 N36:P36 J60:L60 F40:H40 J40:L40 N40:P40 N44:P44 D1:D70 F48:H48 J48:L48 N48:P48 N52:P52 J44:L44 F56:H56 J56:L56 N56:P56 N60:P60 J52:L52 F64:H64 J64:L64 J36:L36">
     <cfRule type="cellIs" dxfId="35" priority="67" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
@@ -13602,26 +12811,2089 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68:H68">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70:H70">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>-0.48383670273159401</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:D64" si="0">ABS(C1)</f>
+        <v>0.48383670273159401</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E64" si="1">IF(D1=MIN($D$1:$D$50),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>-0.378783818267314</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>0.378783818267314</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>-0.713674585629964</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0.713674585629964</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>-0.90274783191095398</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.90274783191095398</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGE(D1,D3,D5,D7)</f>
+        <v>0.41179238981011151</v>
+      </c>
+      <c r="K4">
+        <f>MIN(D1,D3,D5,D7)</f>
+        <v>0.14418235520449399</v>
+      </c>
+      <c r="L4">
+        <f>MAX(D1,D3,D5,D7)</f>
+        <v>0.713674585629964</v>
+      </c>
+      <c r="N4">
+        <f>AVERAGE(D1:D2,D5:D6)</f>
+        <v>0.30270219328152986</v>
+      </c>
+      <c r="O4">
+        <f>MIN(D1:D2,D5:D6)</f>
+        <v>4.2712336452817398E-2</v>
+      </c>
+      <c r="P4">
+        <f>MAX(D1:D2,D5:D6)</f>
+        <v>0.48383670273159401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>-0.30547591567439403</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.30547591567439403</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>-4.2712336452817398E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>4.2712336452817398E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>-0.14418235520449399</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.14418235520449399</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>-0.10184986489922999</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.10184986489922999</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>AVERAGE(D1:D8)</f>
+        <v>0.38415792634634521</v>
+      </c>
+      <c r="G8">
+        <f>MIN(D1:D8)</f>
+        <v>4.2712336452817398E-2</v>
+      </c>
+      <c r="H8">
+        <f>MAX(D1:D8)</f>
+        <v>0.90274783191095398</v>
+      </c>
+      <c r="J8">
+        <f>AVERAGE(D2,D4,D6,D8)</f>
+        <v>0.35652346288257886</v>
+      </c>
+      <c r="K8">
+        <f>MIN(D2,D4,D6,D8)</f>
+        <v>4.2712336452817398E-2</v>
+      </c>
+      <c r="L8">
+        <f>MAX(D2,D4,D6,D8)</f>
+        <v>0.90274783191095398</v>
+      </c>
+      <c r="N8">
+        <f>AVERAGE(D3:D4,D7:D8)</f>
+        <v>0.46561365941116051</v>
+      </c>
+      <c r="O8">
+        <f>MIN(D3:D4,D7:D8)</f>
+        <v>0.10184986489922999</v>
+      </c>
+      <c r="P8">
+        <f>MAX(D3:D4,D7:D8)</f>
+        <v>0.90274783191095398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>-0.22338436033970599</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.22338436033970599</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>-0.86154409843542701</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.86154409843542701</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>-0.41992369258241902</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.41992369258241902</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>-0.15006356758200501</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.15006356758200501</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>AVERAGE(D9,D11,D13,D15)</f>
+        <v>0.42134209939876477</v>
+      </c>
+      <c r="K12">
+        <f>MIN(D9,D11,D13,D15)</f>
+        <v>0.20577619621811899</v>
+      </c>
+      <c r="L12">
+        <f>MAX(D9,D11,D13,D15)</f>
+        <v>0.83628414845481502</v>
+      </c>
+      <c r="N12">
+        <f>AVERAGE(D9:D10,D13:D14)</f>
+        <v>0.51473585831241031</v>
+      </c>
+      <c r="O12">
+        <f>MIN(D9:D10,D13:D14)</f>
+        <v>0.137730826019693</v>
+      </c>
+      <c r="P12">
+        <f>MAX(D9:D10,D13:D14)</f>
+        <v>0.86154409843542701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>-0.83628414845481502</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.83628414845481502</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>-0.137730826019693</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.137730826019693</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>-0.20577619621811899</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.20577619621811899</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>-0.60098612112980898</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.60098612112980898</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>AVERAGE(D9:D16)</f>
+        <v>0.42946162634524915</v>
+      </c>
+      <c r="G16">
+        <f>MIN(D9:D16)</f>
+        <v>0.137730826019693</v>
+      </c>
+      <c r="H16">
+        <f>MAX(D9:D16)</f>
+        <v>0.86154409843542701</v>
+      </c>
+      <c r="J16">
+        <f>AVERAGE(D10,D12,D14,D16)</f>
+        <v>0.43758115329173353</v>
+      </c>
+      <c r="K16">
+        <f>MIN(D10,D12,D14,D16)</f>
+        <v>0.137730826019693</v>
+      </c>
+      <c r="L16">
+        <f>MAX(D10,D12,D14,D16)</f>
+        <v>0.86154409843542701</v>
+      </c>
+      <c r="N16">
+        <f>AVERAGE(D11:D12,D15:D16)</f>
+        <v>0.34418739437808799</v>
+      </c>
+      <c r="O16">
+        <f>MIN(D11:D12,D15:D16)</f>
+        <v>0.15006356758200501</v>
+      </c>
+      <c r="P16">
+        <f>MAX(D11:D12,D15:D16)</f>
+        <v>0.60098612112980898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>-0.75214526700438999</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.75214526700438999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>-0.69664578988852299</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.69664578988852299</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>-0.47464657088621998</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.47464657088621998</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>-0.543612761786336</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.543612761786336</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>AVERAGE(D17,D19,D21,D23)</f>
+        <v>0.54447781496524417</v>
+      </c>
+      <c r="K20">
+        <f>MIN(D17,D19,D21,D23)</f>
+        <v>0.197698901460549</v>
+      </c>
+      <c r="L20">
+        <f>MAX(D17,D19,D21,D23)</f>
+        <v>0.753420520509818</v>
+      </c>
+      <c r="N20">
+        <f>AVERAGE(D17:D18,D21:D22)</f>
+        <v>0.74677696337256272</v>
+      </c>
+      <c r="O20">
+        <f>MIN(D17:D18,D21:D22)</f>
+        <v>0.69664578988852299</v>
+      </c>
+      <c r="P20">
+        <f>MAX(D17:D18,D21:D22)</f>
+        <v>0.78489627608752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>-0.753420520509818</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.753420520509818</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>-0.78489627608752</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.78489627608752</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>-0.197698901460549</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.197698901460549</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>-0.41361680578183302</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.41361680578183302</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>AVERAGE(D17:D24)</f>
+        <v>0.57708536167564861</v>
+      </c>
+      <c r="G24">
+        <f>MIN(D17:D24)</f>
+        <v>0.197698901460549</v>
+      </c>
+      <c r="H24">
+        <f>MAX(D17:D24)</f>
+        <v>0.78489627608752</v>
+      </c>
+      <c r="J24">
+        <f>AVERAGE(D18,D20,D22,D24)</f>
+        <v>0.60969290838605306</v>
+      </c>
+      <c r="K24">
+        <f>MIN(D18,D20,D22,D24)</f>
+        <v>0.41361680578183302</v>
+      </c>
+      <c r="L24">
+        <f>MAX(D18,D20,D22,D24)</f>
+        <v>0.78489627608752</v>
+      </c>
+      <c r="N24">
+        <f>AVERAGE(D19:D20,D23:D24)</f>
+        <v>0.4073937599787345</v>
+      </c>
+      <c r="O24">
+        <f>MIN(D19:D20,D23:D24)</f>
+        <v>0.197698901460549</v>
+      </c>
+      <c r="P24">
+        <f>MAX(D19:D20,D23:D24)</f>
+        <v>0.543612761786336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>-0.63092118838836797</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.63092118838836797</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>-0.135767944708758</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.135767944708758</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>-7.9584026139596697E-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>7.9584026139596697E-2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>75</v>
+      </c>
+      <c r="N27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>-0.75406351807203997</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.75406351807203997</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f>AVERAGE(D25,D27,D29,D31)</f>
+        <v>0.3765470767567497</v>
+      </c>
+      <c r="K28">
+        <f>MIN(D25,D27,D29,D31)</f>
+        <v>7.9584026139596697E-2</v>
+      </c>
+      <c r="L28">
+        <f>MAX(D25,D27,D29,D31)</f>
+        <v>0.63092118838836797</v>
+      </c>
+      <c r="N28">
+        <f>AVERAGE(D25:D26,D29:D30)</f>
+        <v>0.34968621591239324</v>
+      </c>
+      <c r="O28">
+        <f>MIN(D25:D26,D29:D30)</f>
+        <v>0.135767944708758</v>
+      </c>
+      <c r="P28">
+        <f>MAX(D25:D26,D29:D30)</f>
+        <v>0.63092118838836797</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>-0.22300134185249201</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.22300134185249201</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>-0.40905438869995497</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.40905438869995497</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>-0.57268175064654203</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.57268175064654203</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" t="s">
+        <v>76</v>
+      </c>
+      <c r="N31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>-0.29168208070780999</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.29168208070780999</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>AVERAGE(D25:D32)</f>
+        <v>0.38709452990194521</v>
+      </c>
+      <c r="G32">
+        <f>MIN(D25:D32)</f>
+        <v>7.9584026139596697E-2</v>
+      </c>
+      <c r="H32">
+        <f>MAX(D25:D32)</f>
+        <v>0.75406351807203997</v>
+      </c>
+      <c r="J32">
+        <f>AVERAGE(D26,D28,D30,D32)</f>
+        <v>0.39764198304714071</v>
+      </c>
+      <c r="K32">
+        <f>MIN(D26,D28,D30,D32)</f>
+        <v>0.135767944708758</v>
+      </c>
+      <c r="L32">
+        <f>MAX(D26,D28,D30,D32)</f>
+        <v>0.75406351807203997</v>
+      </c>
+      <c r="N32">
+        <f>AVERAGE(D27:D28,D31:D32)</f>
+        <v>0.42450284389149717</v>
+      </c>
+      <c r="O32">
+        <f>MIN(D27:D28,D31:D32)</f>
+        <v>7.9584026139596697E-2</v>
+      </c>
+      <c r="P32">
+        <f>MAX(D27:D28,D31:D32)</f>
+        <v>0.75406351807203997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>-0.444123474432147</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0.444123474432147</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>-0.55868862943150399</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.55868862943150399</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35">
+        <v>-0.990722225396795</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.990722225396795</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>75</v>
+      </c>
+      <c r="N35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>-0.75660537072385103</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.75660537072385103</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f>AVERAGE(D33,D35,D37,D39)</f>
+        <v>0.43699961777578727</v>
+      </c>
+      <c r="K36">
+        <f>MIN(D33,D35,D37,D39)</f>
+        <v>0.13468023589519701</v>
+      </c>
+      <c r="L36">
+        <f>MAX(D33,D35,D37,D39)</f>
+        <v>0.990722225396795</v>
+      </c>
+      <c r="N36">
+        <f>AVERAGE(D33:D34,D37:D38)</f>
+        <v>0.32675613658988079</v>
+      </c>
+      <c r="O36">
+        <f>MIN(D33:D34,D37:D38)</f>
+        <v>0.13468023589519701</v>
+      </c>
+      <c r="P36">
+        <f>MAX(D33:D34,D37:D38)</f>
+        <v>0.55868862943150399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37">
+        <v>-0.13468023589519701</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.13468023589519701</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>-0.169532206600675</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.169532206600675</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>-0.17847253537901001</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.17847253537901001</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>74</v>
+      </c>
+      <c r="J39" t="s">
+        <v>76</v>
+      </c>
+      <c r="N39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>-0.27374134643167902</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.27374134643167902</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>AVERAGE(D33:D40)</f>
+        <v>0.43832075303635731</v>
+      </c>
+      <c r="G40">
+        <f>MIN(D33:D40)</f>
+        <v>0.13468023589519701</v>
+      </c>
+      <c r="H40">
+        <f>MAX(D33:D40)</f>
+        <v>0.990722225396795</v>
+      </c>
+      <c r="J40">
+        <f>AVERAGE(D34,D36,D38,D40)</f>
+        <v>0.4396418882969273</v>
+      </c>
+      <c r="K40">
+        <f>MIN(D34,D36,D38,D40)</f>
+        <v>0.169532206600675</v>
+      </c>
+      <c r="L40">
+        <f>MAX(D34,D36,D38,D40)</f>
+        <v>0.75660537072385103</v>
+      </c>
+      <c r="N40">
+        <f>AVERAGE(D35:D36,D39:D40)</f>
+        <v>0.54988536948283373</v>
+      </c>
+      <c r="O40">
+        <f>MIN(D35:D36,D39:D40)</f>
+        <v>0.17847253537901001</v>
+      </c>
+      <c r="P40">
+        <f>MAX(D35:D36,D39:D40)</f>
+        <v>0.990722225396795</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>-0.46681308073792899</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.46681308073792899</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>-0.19245370846398899</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.19245370846398899</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>-0.11018340280338799</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0.11018340280338799</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+      <c r="N43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>-6.7543754120455504E-2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>6.7543754120455504E-2</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f>AVERAGE(D41,D43,D45,D47)</f>
+        <v>0.30962612197475309</v>
+      </c>
+      <c r="K44">
+        <f>MIN(D41,D43,D45,D47)</f>
+        <v>6.1343031135365399E-2</v>
+      </c>
+      <c r="L44">
+        <f>MAX(D41,D43,D45,D47)</f>
+        <v>0.60016497322232998</v>
+      </c>
+      <c r="N44">
+        <f>AVERAGE(D41:D42,D45:D46)</f>
+        <v>0.38996718637501437</v>
+      </c>
+      <c r="O44">
+        <f>MIN(D41:D42,D45:D46)</f>
+        <v>6.1343031135365399E-2</v>
+      </c>
+      <c r="P44">
+        <f>MAX(D41:D42,D45:D46)</f>
+        <v>0.83925892516277401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45">
+        <v>-6.1343031135365399E-2</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>6.1343031135365399E-2</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46">
+        <v>-0.83925892516277401</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0.83925892516277401</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47">
+        <v>-0.60016497322232998</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0.60016497322232998</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>74</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+      <c r="N47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48">
+        <v>-0.55020286422625897</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0.55020286422625897</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>AVERAGE(D41:D48)</f>
+        <v>0.36099546748406125</v>
+      </c>
+      <c r="G48">
+        <f>MIN(D41:D48)</f>
+        <v>6.1343031135365399E-2</v>
+      </c>
+      <c r="H48">
+        <f>MAX(D41:D48)</f>
+        <v>0.83925892516277401</v>
+      </c>
+      <c r="J48">
+        <f>AVERAGE(D42,D44,D46,D48)</f>
+        <v>0.41236481299336936</v>
+      </c>
+      <c r="K48">
+        <f>MIN(D42,D44,D46,D48)</f>
+        <v>6.7543754120455504E-2</v>
+      </c>
+      <c r="L48">
+        <f>MAX(D42,D44,D46,D48)</f>
+        <v>0.83925892516277401</v>
+      </c>
+      <c r="N48">
+        <f>AVERAGE(D43:D44,D47:D48)</f>
+        <v>0.33202374859310813</v>
+      </c>
+      <c r="O48">
+        <f>MIN(D43:D44,D47:D48)</f>
+        <v>6.7543754120455504E-2</v>
+      </c>
+      <c r="P48">
+        <f>MAX(D43:D44,D47:D48)</f>
+        <v>0.60016497322232998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>-0.33840707060876801</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0.33840707060876801</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50">
+        <v>-0.26223692097317902</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0.26223692097317902</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>-0.13518817467279301</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0.13518817467279301</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>75</v>
+      </c>
+      <c r="N51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>-0.29546220331211198</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0.29546220331211198</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f>AVERAGE(D49,D51,D53,D55)</f>
+        <v>0.29606984076678977</v>
+      </c>
+      <c r="K52">
+        <f>MIN(D49,D51,D53,D55)</f>
+        <v>4.8512390439919E-2</v>
+      </c>
+      <c r="L52">
+        <f>MAX(D49,D51,D53,D55)</f>
+        <v>0.66217172734567897</v>
+      </c>
+      <c r="N52">
+        <f>AVERAGE(D49:D50,D53:D54)</f>
+        <v>0.38922940166833975</v>
+      </c>
+      <c r="O52">
+        <f>MIN(D49:D50,D53:D54)</f>
+        <v>4.8512390439919E-2</v>
+      </c>
+      <c r="P52">
+        <f>MAX(D49:D50,D53:D54)</f>
+        <v>0.907761224651493</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>-4.8512390439919E-2</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>4.8512390439919E-2</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>-0.907761224651493</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0.907761224651493</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>-0.66217172734567897</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0.66217172734567897</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>74</v>
+      </c>
+      <c r="J55" t="s">
+        <v>76</v>
+      </c>
+      <c r="N55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>-0.33606538557160798</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0.33606538557160798</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f>AVERAGE(D49:D56)</f>
+        <v>0.37322563719694385</v>
+      </c>
+      <c r="G56">
+        <f>MIN(D49:D56)</f>
+        <v>4.8512390439919E-2</v>
+      </c>
+      <c r="H56">
+        <f>MAX(D49:D56)</f>
+        <v>0.907761224651493</v>
+      </c>
+      <c r="J56">
+        <f>AVERAGE(D50,D52,D54,D56)</f>
+        <v>0.45038143362709804</v>
+      </c>
+      <c r="K56">
+        <f>MIN(D50,D52,D54,D56)</f>
+        <v>0.26223692097317902</v>
+      </c>
+      <c r="L56">
+        <f>MAX(D50,D52,D54,D56)</f>
+        <v>0.907761224651493</v>
+      </c>
+      <c r="N56">
+        <f>AVERAGE(D51:D52,D55:D56)</f>
+        <v>0.35722187272554801</v>
+      </c>
+      <c r="O56">
+        <f>MIN(D51:D52,D55:D56)</f>
+        <v>0.13518817467279301</v>
+      </c>
+      <c r="P56">
+        <f>MAX(D51:D52,D55:D56)</f>
+        <v>0.66217172734567897</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>-0.420370256758408</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0.420370256758408</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>-0.32408933891066999</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0.32408933891066999</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>-0.77352334215137297</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0.77352334215137297</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>75</v>
+      </c>
+      <c r="N59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>-0.95817309771721804</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0.95817309771721804</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f>AVERAGE(D57,D59,D61,D63)</f>
+        <v>0.40574725827455549</v>
+      </c>
+      <c r="K60">
+        <f>MIN(D57,D59,D61,D63)</f>
+        <v>0.12818708898876799</v>
+      </c>
+      <c r="L60">
+        <f>MAX(D57,D59,D61,D63)</f>
+        <v>0.77352334215137297</v>
+      </c>
+      <c r="N60">
+        <f>AVERAGE(D57:D58,D61:D62)</f>
+        <v>0.27178266421551067</v>
+      </c>
+      <c r="O60">
+        <f>MIN(D57:D58,D61:D62)</f>
+        <v>4.1762715993291601E-2</v>
+      </c>
+      <c r="P60">
+        <f>MAX(D57:D58,D61:D62)</f>
+        <v>0.420370256758408</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>-0.30090834519967302</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0.30090834519967302</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>-4.1762715993291601E-2</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>4.1762715993291601E-2</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>-0.12818708898876799</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>0.12818708898876799</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>74</v>
+      </c>
+      <c r="J63" t="s">
+        <v>76</v>
+      </c>
+      <c r="N63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>-7.5526403351706503E-2</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>7.5526403351706503E-2</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f>AVERAGE(D57:D64)</f>
+        <v>0.37781757363388857</v>
+      </c>
+      <c r="G64">
+        <f>MIN(D57:D64)</f>
+        <v>4.1762715993291601E-2</v>
+      </c>
+      <c r="H64">
+        <f>MAX(D57:D64)</f>
+        <v>0.95817309771721804</v>
+      </c>
+      <c r="J64">
+        <f>AVERAGE(D58,D60,D62,D64)</f>
+        <v>0.34988788899322154</v>
+      </c>
+      <c r="K64">
+        <f>MIN(D58,D60,D62,D64)</f>
+        <v>4.1762715993291601E-2</v>
+      </c>
+      <c r="L64">
+        <f>MAX(D58,D60,D62,D64)</f>
+        <v>0.95817309771721804</v>
+      </c>
+      <c r="N64">
+        <f>AVERAGE(D59:D60,D63:D64)</f>
+        <v>0.48385248305226636</v>
+      </c>
+      <c r="O64">
+        <f>MIN(D59:D60,D63:D64)</f>
+        <v>7.5526403351706503E-2</v>
+      </c>
+      <c r="P64">
+        <f>MAX(D59:D60,D63:D64)</f>
+        <v>0.95817309771721804</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>-3.68479585256224E-2</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ref="D65:D70" si="2">ABS(C65)</f>
+        <v>3.68479585256224E-2</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ref="E65:E70" si="3">IF(D65=MIN($D$1:$D$50),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>-0.22992306801655801</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>0.22992306801655801</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f>AVERAGE(D65:D66)</f>
+        <v>0.13338551327109022</v>
+      </c>
+      <c r="G66">
+        <f>MIN(D65:D66)</f>
+        <v>3.68479585256224E-2</v>
+      </c>
+      <c r="H66">
+        <f>MAX(D65:D66)</f>
+        <v>0.22992306801655801</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>-0.215515760297189</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="2"/>
+        <v>0.215515760297189</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>-0.62365236892222198</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>0.62365236892222198</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f>AVERAGE(D67:D68)</f>
+        <v>0.41958406460970549</v>
+      </c>
+      <c r="G68">
+        <f>MIN(D67:D68)</f>
+        <v>0.215515760297189</v>
+      </c>
+      <c r="H68">
+        <f>MAX(D67:D68)</f>
+        <v>0.62365236892222198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>-0.195224236490907</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>0.195224236490907</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>-0.214689984857769</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>0.214689984857769</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f>AVERAGE(D69:D70)</f>
+        <v>0.204957110674338</v>
+      </c>
+      <c r="G70">
+        <f>MIN(D69:D70)</f>
+        <v>0.195224236490907</v>
+      </c>
+      <c r="H70">
+        <f>MAX(D69:D70)</f>
+        <v>0.214689984857769</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J4:L4 N4:P4 F8:H8 J8:L8 N8:P8 N64:P64 J12:L12 N12:P12 F16:H16 J16:L16 N16:P16 J20:L20 N20:P20 F24:H24 J24:L24 N24:P24 J28:L28 N28:P28 F32:H32 J32:L32 N32:P32 N36:P36 J60:L60 F40:H40 J40:L40 N40:P40 N44:P44 D1:D70 F48:H48 J48:L48 N48:P48 N52:P52 J44:L44 F56:H56 J56:L56 N56:P56 N60:P60 J52:L52 F64:H64 J64:L64 J36:L36">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="between">
+      <formula>0.3</formula>
+      <formula>0.7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
+      <formula>0.3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66:H66">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="between">
+      <formula>0.3</formula>
+      <formula>0.7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
+      <formula>0.3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68:H68">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="between">
+      <formula>0.3</formula>
+      <formula>0.7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+      <formula>0.3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70:H70">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="between">
+      <formula>0.3</formula>
+      <formula>0.7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+      <formula>0.3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68:H68">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="between">
+      <formula>0.3</formula>
+      <formula>0.7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>0.3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70:H70">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+      <formula>0.3</formula>
+      <formula>0.7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0.3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
